--- a/document/프로젝트 일정표.xlsx
+++ b/document/프로젝트 일정표.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ezen\Desktop\JUST문서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ezen\Desktop\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="계획" sheetId="1" r:id="rId1"/>
+    <sheet name="실행" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="59">
   <si>
     <t>10월</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -211,6 +212,54 @@
   </si>
   <si>
     <t>JH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발 환경 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(JH)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(SH)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CW, MY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발 환경 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스프링 프로젝트 세팅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예정일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행 중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 공통</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -243,7 +292,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -256,8 +305,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -404,13 +465,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -471,6 +541,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -478,6 +554,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -760,13 +857,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN40"/>
+  <dimension ref="A1:AN41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AL3" sqref="AL3"/>
+      <selection pane="bottomRight" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -780,47 +877,47 @@
   <sheetData>
     <row r="1" spans="1:40" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="C1" s="18"/>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22"/>
-      <c r="X1" s="22"/>
-      <c r="Y1" s="22"/>
-      <c r="Z1" s="22"/>
-      <c r="AA1" s="22"/>
-      <c r="AB1" s="22"/>
-      <c r="AC1" s="20" t="s">
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="24"/>
+      <c r="U1" s="24"/>
+      <c r="V1" s="24"/>
+      <c r="W1" s="24"/>
+      <c r="X1" s="24"/>
+      <c r="Y1" s="24"/>
+      <c r="Z1" s="24"/>
+      <c r="AA1" s="24"/>
+      <c r="AB1" s="24"/>
+      <c r="AC1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="AD1" s="20"/>
-      <c r="AE1" s="20"/>
-      <c r="AF1" s="20"/>
-      <c r="AG1" s="20"/>
-      <c r="AH1" s="20"/>
-      <c r="AI1" s="20"/>
-      <c r="AJ1" s="20"/>
-      <c r="AK1" s="20"/>
-      <c r="AL1" s="20"/>
-      <c r="AM1" s="20"/>
-      <c r="AN1" s="20"/>
+      <c r="AD1" s="22"/>
+      <c r="AE1" s="22"/>
+      <c r="AF1" s="22"/>
+      <c r="AG1" s="22"/>
+      <c r="AH1" s="22"/>
+      <c r="AI1" s="22"/>
+      <c r="AJ1" s="22"/>
+      <c r="AK1" s="22"/>
+      <c r="AL1" s="22"/>
+      <c r="AM1" s="22"/>
+      <c r="AN1" s="22"/>
     </row>
     <row r="2" spans="1:40" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C2" s="18"/>
@@ -963,61 +1060,29 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:40" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
+        <v>48</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="8"/>
-      <c r="X4" s="8"/>
-      <c r="Y4" s="8"/>
-      <c r="Z4" s="8"/>
-      <c r="AA4" s="8"/>
-      <c r="AB4" s="8"/>
-      <c r="AC4" s="8"/>
-      <c r="AD4" s="8"/>
-      <c r="AE4" s="8"/>
-      <c r="AF4" s="8"/>
-      <c r="AG4" s="8"/>
-      <c r="AH4" s="8"/>
-      <c r="AI4" s="8"/>
-      <c r="AJ4" s="8"/>
-      <c r="AK4" s="8"/>
-      <c r="AM4" s="1"/>
     </row>
     <row r="5" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="7"/>
@@ -1053,16 +1118,17 @@
       <c r="AI5" s="8"/>
       <c r="AJ5" s="8"/>
       <c r="AK5" s="8"/>
+      <c r="AM5" s="1"/>
     </row>
     <row r="6" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="7"/>
@@ -1104,10 +1170,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="7"/>
@@ -1149,7 +1215,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>46</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="7"/>
@@ -1188,10 +1257,10 @@
     </row>
     <row r="9" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="7"/>
@@ -1233,7 +1302,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="7"/>
@@ -1272,137 +1341,137 @@
     </row>
     <row r="11" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="13"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
+      <c r="X11" s="8"/>
+      <c r="Y11" s="8"/>
+      <c r="Z11" s="8"/>
+      <c r="AA11" s="8"/>
+      <c r="AB11" s="8"/>
+      <c r="AC11" s="8"/>
+      <c r="AD11" s="8"/>
+      <c r="AE11" s="8"/>
+      <c r="AF11" s="8"/>
+      <c r="AG11" s="8"/>
+      <c r="AH11" s="8"/>
+      <c r="AI11" s="8"/>
+      <c r="AJ11" s="8"/>
+      <c r="AK11" s="8"/>
+    </row>
+    <row r="12" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
-      <c r="S11" s="10"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="10"/>
-      <c r="V11" s="10"/>
-      <c r="W11" s="10"/>
-      <c r="X11" s="10"/>
-      <c r="Y11" s="10"/>
-      <c r="Z11" s="10"/>
-      <c r="AA11" s="10"/>
-      <c r="AB11" s="10"/>
-      <c r="AC11" s="10"/>
-      <c r="AD11" s="10"/>
-      <c r="AE11" s="10"/>
-      <c r="AF11" s="10"/>
-      <c r="AG11" s="10"/>
-      <c r="AH11" s="10"/>
-      <c r="AI11" s="10"/>
-      <c r="AJ11" s="10"/>
-      <c r="AK11" s="10"/>
-    </row>
-    <row r="12" spans="1:40" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+      <c r="D12" s="14"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="10"/>
+      <c r="X12" s="10"/>
+      <c r="Y12" s="10"/>
+      <c r="Z12" s="10"/>
+      <c r="AA12" s="10"/>
+      <c r="AB12" s="10"/>
+      <c r="AC12" s="10"/>
+      <c r="AD12" s="10"/>
+      <c r="AE12" s="10"/>
+      <c r="AF12" s="10"/>
+      <c r="AG12" s="10"/>
+      <c r="AH12" s="10"/>
+      <c r="AI12" s="10"/>
+      <c r="AJ12" s="10"/>
+      <c r="AK12" s="10"/>
+    </row>
+    <row r="13" spans="1:40" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B13" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="11"/>
-      <c r="S12" s="12"/>
-      <c r="T12" s="12"/>
-      <c r="U12" s="12"/>
-      <c r="V12" s="12"/>
-      <c r="W12" s="12"/>
-      <c r="X12" s="12"/>
-      <c r="Y12" s="12"/>
-      <c r="Z12" s="11"/>
-      <c r="AA12" s="11"/>
-      <c r="AB12" s="11"/>
-      <c r="AC12" s="11"/>
-      <c r="AD12" s="11"/>
-      <c r="AE12" s="11"/>
-      <c r="AF12" s="11"/>
-      <c r="AG12" s="11"/>
-      <c r="AH12" s="11"/>
-      <c r="AI12" s="11"/>
-      <c r="AJ12" s="11"/>
-      <c r="AK12" s="11"/>
-    </row>
-    <row r="13" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="7"/>
-      <c r="T13" s="7"/>
-      <c r="U13" s="7"/>
-      <c r="V13" s="7"/>
-      <c r="W13" s="7"/>
-      <c r="X13" s="7"/>
-      <c r="Y13" s="7"/>
-      <c r="Z13" s="8"/>
-      <c r="AA13" s="8"/>
-      <c r="AB13" s="8"/>
-      <c r="AC13" s="8"/>
-      <c r="AD13" s="8"/>
-      <c r="AE13" s="8"/>
-      <c r="AF13" s="8"/>
-      <c r="AG13" s="8"/>
-      <c r="AH13" s="8"/>
-      <c r="AI13" s="8"/>
-      <c r="AJ13" s="8"/>
-      <c r="AK13" s="8"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="12"/>
+      <c r="V13" s="12"/>
+      <c r="W13" s="12"/>
+      <c r="X13" s="12"/>
+      <c r="Y13" s="12"/>
+      <c r="Z13" s="11"/>
+      <c r="AA13" s="11"/>
+      <c r="AB13" s="11"/>
+      <c r="AC13" s="11"/>
+      <c r="AD13" s="11"/>
+      <c r="AE13" s="11"/>
+      <c r="AF13" s="11"/>
+      <c r="AG13" s="11"/>
+      <c r="AH13" s="11"/>
+      <c r="AI13" s="11"/>
+      <c r="AJ13" s="11"/>
+      <c r="AK13" s="11"/>
     </row>
     <row r="14" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D14" s="16"/>
       <c r="E14" s="8"/>
@@ -1444,7 +1513,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D15" s="16"/>
       <c r="E15" s="8"/>
@@ -1486,7 +1555,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D16" s="16"/>
       <c r="E16" s="8"/>
@@ -1528,7 +1597,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D17" s="16"/>
       <c r="E17" s="8"/>
@@ -1570,7 +1639,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D18" s="16"/>
       <c r="E18" s="8"/>
@@ -1609,10 +1678,10 @@
     </row>
     <row r="19" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D19" s="16"/>
       <c r="E19" s="8"/>
@@ -1654,7 +1723,7 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D20" s="16"/>
       <c r="E20" s="8"/>
@@ -1693,137 +1762,137 @@
     </row>
     <row r="21" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="16"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="7"/>
+      <c r="U21" s="7"/>
+      <c r="V21" s="7"/>
+      <c r="W21" s="7"/>
+      <c r="X21" s="7"/>
+      <c r="Y21" s="7"/>
+      <c r="Z21" s="8"/>
+      <c r="AA21" s="8"/>
+      <c r="AB21" s="8"/>
+      <c r="AC21" s="8"/>
+      <c r="AD21" s="8"/>
+      <c r="AE21" s="8"/>
+      <c r="AF21" s="8"/>
+      <c r="AG21" s="8"/>
+      <c r="AH21" s="8"/>
+      <c r="AI21" s="8"/>
+      <c r="AJ21" s="8"/>
+      <c r="AK21" s="8"/>
+    </row>
+    <row r="22" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="17"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="10"/>
-      <c r="S21" s="9"/>
-      <c r="T21" s="9"/>
-      <c r="U21" s="9"/>
-      <c r="V21" s="9"/>
-      <c r="W21" s="9"/>
-      <c r="X21" s="9"/>
-      <c r="Y21" s="9"/>
-      <c r="Z21" s="10"/>
-      <c r="AA21" s="10"/>
-      <c r="AB21" s="10"/>
-      <c r="AC21" s="10"/>
-      <c r="AD21" s="10"/>
-      <c r="AE21" s="10"/>
-      <c r="AF21" s="10"/>
-      <c r="AG21" s="10"/>
-      <c r="AH21" s="10"/>
-      <c r="AI21" s="10"/>
-      <c r="AJ21" s="10"/>
-      <c r="AK21" s="10"/>
-    </row>
-    <row r="22" spans="1:37" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
+      <c r="D22" s="17"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="9"/>
+      <c r="T22" s="9"/>
+      <c r="U22" s="9"/>
+      <c r="V22" s="9"/>
+      <c r="W22" s="9"/>
+      <c r="X22" s="9"/>
+      <c r="Y22" s="9"/>
+      <c r="Z22" s="10"/>
+      <c r="AA22" s="10"/>
+      <c r="AB22" s="10"/>
+      <c r="AC22" s="10"/>
+      <c r="AD22" s="10"/>
+      <c r="AE22" s="10"/>
+      <c r="AF22" s="10"/>
+      <c r="AG22" s="10"/>
+      <c r="AH22" s="10"/>
+      <c r="AI22" s="10"/>
+      <c r="AJ22" s="10"/>
+      <c r="AK22" s="10"/>
+    </row>
+    <row r="23" spans="1:37" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B23" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="19"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="11"/>
-      <c r="R22" s="11"/>
-      <c r="S22" s="11"/>
-      <c r="T22" s="11"/>
-      <c r="U22" s="11"/>
-      <c r="V22" s="11"/>
-      <c r="W22" s="11"/>
-      <c r="X22" s="11"/>
-      <c r="Y22" s="11"/>
-      <c r="Z22" s="12"/>
-      <c r="AA22" s="12"/>
-      <c r="AB22" s="12"/>
-      <c r="AC22" s="12"/>
-      <c r="AD22" s="12"/>
-      <c r="AE22" s="12"/>
-      <c r="AF22" s="12"/>
-      <c r="AG22" s="12"/>
-      <c r="AH22" s="12"/>
-      <c r="AI22" s="12"/>
-      <c r="AJ22" s="12"/>
-      <c r="AK22" s="12"/>
-    </row>
-    <row r="23" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23" s="16"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="8"/>
-      <c r="R23" s="8"/>
-      <c r="S23" s="8"/>
-      <c r="T23" s="8"/>
-      <c r="U23" s="8"/>
-      <c r="V23" s="8"/>
-      <c r="W23" s="8"/>
-      <c r="X23" s="8"/>
-      <c r="Y23" s="8"/>
-      <c r="Z23" s="7"/>
-      <c r="AA23" s="7"/>
-      <c r="AB23" s="7"/>
-      <c r="AC23" s="7"/>
-      <c r="AD23" s="7"/>
-      <c r="AE23" s="7"/>
-      <c r="AF23" s="7"/>
-      <c r="AG23" s="7"/>
-      <c r="AH23" s="7"/>
-      <c r="AI23" s="7"/>
-      <c r="AJ23" s="7"/>
-      <c r="AK23" s="7"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="11"/>
+      <c r="T23" s="11"/>
+      <c r="U23" s="11"/>
+      <c r="V23" s="11"/>
+      <c r="W23" s="11"/>
+      <c r="X23" s="11"/>
+      <c r="Y23" s="11"/>
+      <c r="Z23" s="12"/>
+      <c r="AA23" s="12"/>
+      <c r="AB23" s="12"/>
+      <c r="AC23" s="12"/>
+      <c r="AD23" s="12"/>
+      <c r="AE23" s="12"/>
+      <c r="AF23" s="12"/>
+      <c r="AG23" s="12"/>
+      <c r="AH23" s="12"/>
+      <c r="AI23" s="12"/>
+      <c r="AJ23" s="12"/>
+      <c r="AK23" s="12"/>
     </row>
     <row r="24" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D24" s="16"/>
       <c r="E24" s="8"/>
@@ -1865,92 +1934,1333 @@
         <v>30</v>
       </c>
       <c r="B25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="16"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="8"/>
+      <c r="T25" s="8"/>
+      <c r="U25" s="8"/>
+      <c r="V25" s="8"/>
+      <c r="W25" s="8"/>
+      <c r="X25" s="8"/>
+      <c r="Y25" s="8"/>
+      <c r="Z25" s="7"/>
+      <c r="AA25" s="7"/>
+      <c r="AB25" s="7"/>
+      <c r="AC25" s="7"/>
+      <c r="AD25" s="7"/>
+      <c r="AE25" s="7"/>
+      <c r="AF25" s="7"/>
+      <c r="AG25" s="7"/>
+      <c r="AH25" s="7"/>
+      <c r="AI25" s="7"/>
+      <c r="AJ25" s="7"/>
+      <c r="AK25" s="7"/>
+    </row>
+    <row r="26" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="17"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="10"/>
-      <c r="R25" s="10"/>
-      <c r="S25" s="10"/>
-      <c r="T25" s="10"/>
-      <c r="U25" s="10"/>
-      <c r="V25" s="10"/>
-      <c r="W25" s="10"/>
-      <c r="X25" s="10"/>
-      <c r="Y25" s="10"/>
-      <c r="Z25" s="9"/>
-      <c r="AA25" s="9"/>
-      <c r="AB25" s="9"/>
-      <c r="AC25" s="9"/>
-      <c r="AD25" s="9"/>
-      <c r="AE25" s="9"/>
-      <c r="AF25" s="9"/>
-      <c r="AG25" s="9"/>
-      <c r="AH25" s="9"/>
-      <c r="AI25" s="9"/>
-      <c r="AJ25" s="9"/>
-      <c r="AK25" s="9"/>
-    </row>
-    <row r="26" spans="1:37" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
+      <c r="D26" s="17"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="10"/>
+      <c r="R26" s="10"/>
+      <c r="S26" s="10"/>
+      <c r="T26" s="10"/>
+      <c r="U26" s="10"/>
+      <c r="V26" s="10"/>
+      <c r="W26" s="10"/>
+      <c r="X26" s="10"/>
+      <c r="Y26" s="10"/>
+      <c r="Z26" s="9"/>
+      <c r="AA26" s="9"/>
+      <c r="AB26" s="9"/>
+      <c r="AC26" s="9"/>
+      <c r="AD26" s="9"/>
+      <c r="AE26" s="9"/>
+      <c r="AF26" s="9"/>
+      <c r="AG26" s="9"/>
+      <c r="AH26" s="9"/>
+      <c r="AI26" s="9"/>
+      <c r="AJ26" s="9"/>
+      <c r="AK26" s="9"/>
+    </row>
+    <row r="27" spans="1:37" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B27" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="19"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="11"/>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="11"/>
-      <c r="R26" s="11"/>
-      <c r="S26" s="11"/>
-      <c r="T26" s="11"/>
-      <c r="U26" s="11"/>
-      <c r="V26" s="11"/>
-      <c r="W26" s="11"/>
-      <c r="X26" s="11"/>
-      <c r="Y26" s="11"/>
-      <c r="Z26" s="11"/>
-      <c r="AA26" s="11"/>
-      <c r="AB26" s="11"/>
-      <c r="AC26" s="11"/>
-      <c r="AD26" s="11"/>
-      <c r="AE26" s="11"/>
-      <c r="AF26" s="12"/>
-      <c r="AG26" s="12"/>
-      <c r="AH26" s="12"/>
-      <c r="AI26" s="12"/>
-      <c r="AJ26" s="12"/>
-      <c r="AK26" s="12"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="11"/>
+      <c r="T27" s="11"/>
+      <c r="U27" s="11"/>
+      <c r="V27" s="11"/>
+      <c r="W27" s="11"/>
+      <c r="X27" s="11"/>
+      <c r="Y27" s="11"/>
+      <c r="Z27" s="11"/>
+      <c r="AA27" s="11"/>
+      <c r="AB27" s="11"/>
+      <c r="AC27" s="11"/>
+      <c r="AD27" s="11"/>
+      <c r="AE27" s="11"/>
+      <c r="AF27" s="12"/>
+      <c r="AG27" s="12"/>
+      <c r="AH27" s="12"/>
+      <c r="AI27" s="12"/>
+      <c r="AJ27" s="12"/>
+      <c r="AK27" s="12"/>
+    </row>
+    <row r="28" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="17"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="10"/>
+      <c r="R28" s="10"/>
+      <c r="S28" s="10"/>
+      <c r="T28" s="10"/>
+      <c r="U28" s="10"/>
+      <c r="V28" s="10"/>
+      <c r="W28" s="10"/>
+      <c r="X28" s="10"/>
+      <c r="Y28" s="10"/>
+      <c r="Z28" s="10"/>
+      <c r="AA28" s="10"/>
+      <c r="AB28" s="10"/>
+      <c r="AC28" s="10"/>
+      <c r="AD28" s="10"/>
+      <c r="AE28" s="10"/>
+      <c r="AF28" s="9"/>
+      <c r="AG28" s="9"/>
+      <c r="AH28" s="9"/>
+      <c r="AI28" s="9"/>
+      <c r="AJ28" s="9"/>
+      <c r="AK28" s="9"/>
+    </row>
+    <row r="29" spans="1:37" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2"/>
+      <c r="B29" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="19"/>
+      <c r="D29" s="6"/>
+    </row>
+    <row r="30" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="AC1:AN1"/>
+    <mergeCell ref="D1:AB1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AN42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="35.875" customWidth="1"/>
+    <col min="3" max="3" width="8.25" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.625" style="5" customWidth="1"/>
+    <col min="5" max="40" width="5.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:40" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B1" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="18"/>
+      <c r="D1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="24"/>
+      <c r="U1" s="24"/>
+      <c r="V1" s="24"/>
+      <c r="W1" s="24"/>
+      <c r="X1" s="24"/>
+      <c r="Y1" s="24"/>
+      <c r="Z1" s="24"/>
+      <c r="AA1" s="24"/>
+      <c r="AB1" s="24"/>
+      <c r="AC1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD1" s="22"/>
+      <c r="AE1" s="22"/>
+      <c r="AF1" s="22"/>
+      <c r="AG1" s="22"/>
+      <c r="AH1" s="22"/>
+      <c r="AI1" s="22"/>
+      <c r="AJ1" s="22"/>
+      <c r="AK1" s="22"/>
+      <c r="AL1" s="22"/>
+      <c r="AM1" s="22"/>
+      <c r="AN1" s="22"/>
+    </row>
+    <row r="2" spans="1:40" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="4">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1">
+        <v>8</v>
+      </c>
+      <c r="G2" s="28">
+        <v>9</v>
+      </c>
+      <c r="H2" s="28">
+        <v>10</v>
+      </c>
+      <c r="I2" s="1">
+        <v>11</v>
+      </c>
+      <c r="J2" s="1">
+        <v>12</v>
+      </c>
+      <c r="K2" s="1">
+        <v>13</v>
+      </c>
+      <c r="L2" s="1">
+        <v>14</v>
+      </c>
+      <c r="M2" s="1">
+        <v>15</v>
+      </c>
+      <c r="N2" s="28">
+        <v>16</v>
+      </c>
+      <c r="O2" s="28">
+        <v>17</v>
+      </c>
+      <c r="P2" s="1">
+        <v>18</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>19</v>
+      </c>
+      <c r="R2" s="1">
+        <v>20</v>
+      </c>
+      <c r="S2" s="1">
+        <v>21</v>
+      </c>
+      <c r="T2" s="1">
+        <v>22</v>
+      </c>
+      <c r="U2" s="28">
+        <v>23</v>
+      </c>
+      <c r="V2" s="28">
+        <v>24</v>
+      </c>
+      <c r="W2" s="1">
+        <v>25</v>
+      </c>
+      <c r="X2" s="1">
+        <v>26</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>27</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>28</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>29</v>
+      </c>
+      <c r="AB2" s="28">
+        <v>30</v>
+      </c>
+      <c r="AC2" s="28">
+        <v>1</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE2" s="1">
+        <v>3</v>
+      </c>
+      <c r="AF2" s="1">
+        <v>4</v>
+      </c>
+      <c r="AG2" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH2" s="1">
+        <v>6</v>
+      </c>
+      <c r="AI2" s="28">
+        <v>7</v>
+      </c>
+      <c r="AJ2" s="28">
+        <v>8</v>
+      </c>
+      <c r="AK2" s="1">
+        <v>9</v>
+      </c>
+      <c r="AL2" s="1">
+        <v>10</v>
+      </c>
+      <c r="AM2" s="1">
+        <v>11</v>
+      </c>
+      <c r="AN2" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:40" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="18"/>
+      <c r="D3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AL3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:40" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+    </row>
+    <row r="5" spans="1:40" s="21" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="25"/>
+      <c r="B5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+    </row>
+    <row r="6" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="8"/>
+      <c r="AA6" s="8"/>
+      <c r="AB6" s="8"/>
+      <c r="AC6" s="8"/>
+      <c r="AD6" s="8"/>
+      <c r="AE6" s="8"/>
+      <c r="AF6" s="8"/>
+      <c r="AG6" s="8"/>
+      <c r="AH6" s="8"/>
+      <c r="AI6" s="8"/>
+      <c r="AJ6" s="8"/>
+      <c r="AK6" s="8"/>
+      <c r="AM6" s="1"/>
+    </row>
+    <row r="7" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="25"/>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="13"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="8"/>
+      <c r="Z7" s="8"/>
+      <c r="AA7" s="8"/>
+      <c r="AB7" s="8"/>
+      <c r="AC7" s="8"/>
+      <c r="AD7" s="8"/>
+      <c r="AE7" s="8"/>
+      <c r="AF7" s="8"/>
+      <c r="AG7" s="8"/>
+      <c r="AH7" s="8"/>
+      <c r="AI7" s="8"/>
+      <c r="AJ7" s="8"/>
+      <c r="AK7" s="8"/>
+    </row>
+    <row r="8" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="13"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="8"/>
+      <c r="X8" s="8"/>
+      <c r="Y8" s="8"/>
+      <c r="Z8" s="8"/>
+      <c r="AA8" s="8"/>
+      <c r="AB8" s="8"/>
+      <c r="AC8" s="8"/>
+      <c r="AD8" s="8"/>
+      <c r="AE8" s="8"/>
+      <c r="AF8" s="8"/>
+      <c r="AG8" s="8"/>
+      <c r="AH8" s="8"/>
+      <c r="AI8" s="8"/>
+      <c r="AJ8" s="8"/>
+      <c r="AK8" s="8"/>
+    </row>
+    <row r="9" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="25"/>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="13"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
+      <c r="X9" s="8"/>
+      <c r="Y9" s="8"/>
+      <c r="Z9" s="8"/>
+      <c r="AA9" s="8"/>
+      <c r="AB9" s="8"/>
+      <c r="AC9" s="8"/>
+      <c r="AD9" s="8"/>
+      <c r="AE9" s="8"/>
+      <c r="AF9" s="8"/>
+      <c r="AG9" s="8"/>
+      <c r="AH9" s="8"/>
+      <c r="AI9" s="8"/>
+      <c r="AJ9" s="8"/>
+      <c r="AK9" s="8"/>
+    </row>
+    <row r="10" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="25"/>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="13"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="8"/>
+      <c r="Z10" s="8"/>
+      <c r="AA10" s="8"/>
+      <c r="AB10" s="8"/>
+      <c r="AC10" s="8"/>
+      <c r="AD10" s="8"/>
+      <c r="AE10" s="8"/>
+      <c r="AF10" s="8"/>
+      <c r="AG10" s="8"/>
+      <c r="AH10" s="8"/>
+      <c r="AI10" s="8"/>
+      <c r="AJ10" s="8"/>
+      <c r="AK10" s="8"/>
+    </row>
+    <row r="11" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="13"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
+      <c r="X11" s="8"/>
+      <c r="Y11" s="8"/>
+      <c r="Z11" s="8"/>
+      <c r="AA11" s="8"/>
+      <c r="AB11" s="8"/>
+      <c r="AC11" s="8"/>
+      <c r="AD11" s="8"/>
+      <c r="AE11" s="8"/>
+      <c r="AF11" s="8"/>
+      <c r="AG11" s="8"/>
+      <c r="AH11" s="8"/>
+      <c r="AI11" s="8"/>
+      <c r="AJ11" s="8"/>
+      <c r="AK11" s="8"/>
+    </row>
+    <row r="12" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="25"/>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="13"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8"/>
+      <c r="X12" s="8"/>
+      <c r="Y12" s="8"/>
+      <c r="Z12" s="8"/>
+      <c r="AA12" s="8"/>
+      <c r="AB12" s="8"/>
+      <c r="AC12" s="8"/>
+      <c r="AD12" s="8"/>
+      <c r="AE12" s="8"/>
+      <c r="AF12" s="8"/>
+      <c r="AG12" s="8"/>
+      <c r="AH12" s="8"/>
+      <c r="AI12" s="8"/>
+      <c r="AJ12" s="8"/>
+      <c r="AK12" s="8"/>
+    </row>
+    <row r="13" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="14"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="10"/>
+      <c r="X13" s="10"/>
+      <c r="Y13" s="10"/>
+      <c r="Z13" s="10"/>
+      <c r="AA13" s="10"/>
+      <c r="AB13" s="10"/>
+      <c r="AC13" s="10"/>
+      <c r="AD13" s="10"/>
+      <c r="AE13" s="10"/>
+      <c r="AF13" s="10"/>
+      <c r="AG13" s="10"/>
+      <c r="AH13" s="10"/>
+      <c r="AI13" s="10"/>
+      <c r="AJ13" s="10"/>
+      <c r="AK13" s="10"/>
+    </row>
+    <row r="14" spans="1:40" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="19"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
+      <c r="U14" s="12"/>
+      <c r="V14" s="12"/>
+      <c r="W14" s="12"/>
+      <c r="X14" s="12"/>
+      <c r="Y14" s="12"/>
+      <c r="Z14" s="11"/>
+      <c r="AA14" s="11"/>
+      <c r="AB14" s="11"/>
+      <c r="AC14" s="11"/>
+      <c r="AD14" s="11"/>
+      <c r="AE14" s="11"/>
+      <c r="AF14" s="11"/>
+      <c r="AG14" s="11"/>
+      <c r="AH14" s="11"/>
+      <c r="AI14" s="11"/>
+      <c r="AJ14" s="11"/>
+      <c r="AK14" s="11"/>
+    </row>
+    <row r="15" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="16"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="7"/>
+      <c r="X15" s="7"/>
+      <c r="Y15" s="7"/>
+      <c r="Z15" s="8"/>
+      <c r="AA15" s="8"/>
+      <c r="AB15" s="8"/>
+      <c r="AC15" s="8"/>
+      <c r="AD15" s="8"/>
+      <c r="AE15" s="8"/>
+      <c r="AF15" s="8"/>
+      <c r="AG15" s="8"/>
+      <c r="AH15" s="8"/>
+      <c r="AI15" s="8"/>
+      <c r="AJ15" s="8"/>
+      <c r="AK15" s="8"/>
+    </row>
+    <row r="16" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="25"/>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="16"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="7"/>
+      <c r="X16" s="7"/>
+      <c r="Y16" s="7"/>
+      <c r="Z16" s="8"/>
+      <c r="AA16" s="8"/>
+      <c r="AB16" s="8"/>
+      <c r="AC16" s="8"/>
+      <c r="AD16" s="8"/>
+      <c r="AE16" s="8"/>
+      <c r="AF16" s="8"/>
+      <c r="AG16" s="8"/>
+      <c r="AH16" s="8"/>
+      <c r="AI16" s="8"/>
+      <c r="AJ16" s="8"/>
+      <c r="AK16" s="8"/>
+    </row>
+    <row r="17" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="25"/>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="16"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="7"/>
+      <c r="X17" s="7"/>
+      <c r="Y17" s="7"/>
+      <c r="Z17" s="8"/>
+      <c r="AA17" s="8"/>
+      <c r="AB17" s="8"/>
+      <c r="AC17" s="8"/>
+      <c r="AD17" s="8"/>
+      <c r="AE17" s="8"/>
+      <c r="AF17" s="8"/>
+      <c r="AG17" s="8"/>
+      <c r="AH17" s="8"/>
+      <c r="AI17" s="8"/>
+      <c r="AJ17" s="8"/>
+      <c r="AK17" s="8"/>
+    </row>
+    <row r="18" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="25"/>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="16"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="7"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="7"/>
+      <c r="X18" s="7"/>
+      <c r="Y18" s="7"/>
+      <c r="Z18" s="8"/>
+      <c r="AA18" s="8"/>
+      <c r="AB18" s="8"/>
+      <c r="AC18" s="8"/>
+      <c r="AD18" s="8"/>
+      <c r="AE18" s="8"/>
+      <c r="AF18" s="8"/>
+      <c r="AG18" s="8"/>
+      <c r="AH18" s="8"/>
+      <c r="AI18" s="8"/>
+      <c r="AJ18" s="8"/>
+      <c r="AK18" s="8"/>
+    </row>
+    <row r="19" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="25"/>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="16"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="7"/>
+      <c r="U19" s="7"/>
+      <c r="V19" s="7"/>
+      <c r="W19" s="7"/>
+      <c r="X19" s="7"/>
+      <c r="Y19" s="7"/>
+      <c r="Z19" s="8"/>
+      <c r="AA19" s="8"/>
+      <c r="AB19" s="8"/>
+      <c r="AC19" s="8"/>
+      <c r="AD19" s="8"/>
+      <c r="AE19" s="8"/>
+      <c r="AF19" s="8"/>
+      <c r="AG19" s="8"/>
+      <c r="AH19" s="8"/>
+      <c r="AI19" s="8"/>
+      <c r="AJ19" s="8"/>
+      <c r="AK19" s="8"/>
+    </row>
+    <row r="20" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="25"/>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="16"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="7"/>
+      <c r="V20" s="7"/>
+      <c r="W20" s="7"/>
+      <c r="X20" s="7"/>
+      <c r="Y20" s="7"/>
+      <c r="Z20" s="8"/>
+      <c r="AA20" s="8"/>
+      <c r="AB20" s="8"/>
+      <c r="AC20" s="8"/>
+      <c r="AD20" s="8"/>
+      <c r="AE20" s="8"/>
+      <c r="AF20" s="8"/>
+      <c r="AG20" s="8"/>
+      <c r="AH20" s="8"/>
+      <c r="AI20" s="8"/>
+      <c r="AJ20" s="8"/>
+      <c r="AK20" s="8"/>
+    </row>
+    <row r="21" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="16"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="7"/>
+      <c r="U21" s="7"/>
+      <c r="V21" s="7"/>
+      <c r="W21" s="7"/>
+      <c r="X21" s="7"/>
+      <c r="Y21" s="7"/>
+      <c r="Z21" s="8"/>
+      <c r="AA21" s="8"/>
+      <c r="AB21" s="8"/>
+      <c r="AC21" s="8"/>
+      <c r="AD21" s="8"/>
+      <c r="AE21" s="8"/>
+      <c r="AF21" s="8"/>
+      <c r="AG21" s="8"/>
+      <c r="AH21" s="8"/>
+      <c r="AI21" s="8"/>
+      <c r="AJ21" s="8"/>
+      <c r="AK21" s="8"/>
+    </row>
+    <row r="22" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="25"/>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="16"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="7"/>
+      <c r="U22" s="7"/>
+      <c r="V22" s="7"/>
+      <c r="W22" s="7"/>
+      <c r="X22" s="7"/>
+      <c r="Y22" s="7"/>
+      <c r="Z22" s="8"/>
+      <c r="AA22" s="8"/>
+      <c r="AB22" s="8"/>
+      <c r="AC22" s="8"/>
+      <c r="AD22" s="8"/>
+      <c r="AE22" s="8"/>
+      <c r="AF22" s="8"/>
+      <c r="AG22" s="8"/>
+      <c r="AH22" s="8"/>
+      <c r="AI22" s="8"/>
+      <c r="AJ22" s="8"/>
+      <c r="AK22" s="8"/>
+    </row>
+    <row r="23" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="17"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="9"/>
+      <c r="T23" s="9"/>
+      <c r="U23" s="9"/>
+      <c r="V23" s="9"/>
+      <c r="W23" s="9"/>
+      <c r="X23" s="9"/>
+      <c r="Y23" s="9"/>
+      <c r="Z23" s="10"/>
+      <c r="AA23" s="10"/>
+      <c r="AB23" s="10"/>
+      <c r="AC23" s="10"/>
+      <c r="AD23" s="10"/>
+      <c r="AE23" s="10"/>
+      <c r="AF23" s="10"/>
+      <c r="AG23" s="10"/>
+      <c r="AH23" s="10"/>
+      <c r="AI23" s="10"/>
+      <c r="AJ23" s="10"/>
+      <c r="AK23" s="10"/>
+    </row>
+    <row r="24" spans="1:37" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="19"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="11"/>
+      <c r="T24" s="11"/>
+      <c r="U24" s="11"/>
+      <c r="V24" s="11"/>
+      <c r="W24" s="11"/>
+      <c r="X24" s="11"/>
+      <c r="Y24" s="11"/>
+      <c r="Z24" s="12"/>
+      <c r="AA24" s="12"/>
+      <c r="AB24" s="12"/>
+      <c r="AC24" s="12"/>
+      <c r="AD24" s="12"/>
+      <c r="AE24" s="12"/>
+      <c r="AF24" s="12"/>
+      <c r="AG24" s="12"/>
+      <c r="AH24" s="12"/>
+      <c r="AI24" s="12"/>
+      <c r="AJ24" s="12"/>
+      <c r="AK24" s="12"/>
+    </row>
+    <row r="25" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="16"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="8"/>
+      <c r="T25" s="8"/>
+      <c r="U25" s="8"/>
+      <c r="V25" s="8"/>
+      <c r="W25" s="8"/>
+      <c r="X25" s="8"/>
+      <c r="Y25" s="8"/>
+      <c r="Z25" s="7"/>
+      <c r="AA25" s="7"/>
+      <c r="AB25" s="7"/>
+      <c r="AC25" s="7"/>
+      <c r="AD25" s="7"/>
+      <c r="AE25" s="7"/>
+      <c r="AF25" s="7"/>
+      <c r="AG25" s="7"/>
+      <c r="AH25" s="7"/>
+      <c r="AI25" s="7"/>
+      <c r="AJ25" s="7"/>
+      <c r="AK25" s="7"/>
+    </row>
+    <row r="26" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="16"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="8"/>
+      <c r="S26" s="8"/>
+      <c r="T26" s="8"/>
+      <c r="U26" s="8"/>
+      <c r="V26" s="8"/>
+      <c r="W26" s="8"/>
+      <c r="X26" s="8"/>
+      <c r="Y26" s="8"/>
+      <c r="Z26" s="7"/>
+      <c r="AA26" s="7"/>
+      <c r="AB26" s="7"/>
+      <c r="AC26" s="7"/>
+      <c r="AD26" s="7"/>
+      <c r="AE26" s="7"/>
+      <c r="AF26" s="7"/>
+      <c r="AG26" s="7"/>
+      <c r="AH26" s="7"/>
+      <c r="AI26" s="7"/>
+      <c r="AJ26" s="7"/>
+      <c r="AK26" s="7"/>
     </row>
     <row r="27" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="A27" s="26"/>
       <c r="B27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D27" s="17"/>
       <c r="E27" s="10"/>
@@ -1974,12 +3284,12 @@
       <c r="W27" s="10"/>
       <c r="X27" s="10"/>
       <c r="Y27" s="10"/>
-      <c r="Z27" s="10"/>
-      <c r="AA27" s="10"/>
-      <c r="AB27" s="10"/>
-      <c r="AC27" s="10"/>
-      <c r="AD27" s="10"/>
-      <c r="AE27" s="10"/>
+      <c r="Z27" s="9"/>
+      <c r="AA27" s="9"/>
+      <c r="AB27" s="9"/>
+      <c r="AC27" s="9"/>
+      <c r="AD27" s="9"/>
+      <c r="AE27" s="9"/>
       <c r="AF27" s="9"/>
       <c r="AG27" s="9"/>
       <c r="AH27" s="9"/>
@@ -1988,15 +3298,96 @@
       <c r="AK27" s="9"/>
     </row>
     <row r="28" spans="1:37" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="2"/>
+      <c r="A28" s="27" t="s">
+        <v>30</v>
+      </c>
       <c r="B28" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="19"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="11"/>
+      <c r="T28" s="11"/>
+      <c r="U28" s="11"/>
+      <c r="V28" s="11"/>
+      <c r="W28" s="11"/>
+      <c r="X28" s="11"/>
+      <c r="Y28" s="11"/>
+      <c r="Z28" s="11"/>
+      <c r="AA28" s="11"/>
+      <c r="AB28" s="11"/>
+      <c r="AC28" s="11"/>
+      <c r="AD28" s="11"/>
+      <c r="AE28" s="11"/>
+      <c r="AF28" s="12"/>
+      <c r="AG28" s="12"/>
+      <c r="AH28" s="12"/>
+      <c r="AI28" s="12"/>
+      <c r="AJ28" s="12"/>
+      <c r="AK28" s="12"/>
+    </row>
+    <row r="29" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="26"/>
+      <c r="B29" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" s="17"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="10"/>
+      <c r="T29" s="10"/>
+      <c r="U29" s="10"/>
+      <c r="V29" s="10"/>
+      <c r="W29" s="10"/>
+      <c r="X29" s="10"/>
+      <c r="Y29" s="10"/>
+      <c r="Z29" s="10"/>
+      <c r="AA29" s="10"/>
+      <c r="AB29" s="10"/>
+      <c r="AC29" s="10"/>
+      <c r="AD29" s="10"/>
+      <c r="AE29" s="10"/>
+      <c r="AF29" s="9"/>
+      <c r="AG29" s="9"/>
+      <c r="AH29" s="9"/>
+      <c r="AI29" s="9"/>
+      <c r="AJ29" s="9"/>
+      <c r="AK29" s="9"/>
+    </row>
+    <row r="30" spans="1:37" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="2"/>
+      <c r="B30" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="19"/>
-      <c r="D28" s="6"/>
-    </row>
-    <row r="29" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="6"/>
+    </row>
     <row r="31" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2007,10 +3398,20 @@
     <row r="38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="10">
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="D1:AB1"/>
     <mergeCell ref="AC1:AN1"/>
-    <mergeCell ref="D1:AB1"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="A4:A5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/document/프로젝트 일정표.xlsx
+++ b/document/프로젝트 일정표.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="60">
   <si>
     <t>10월</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -239,10 +239,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>개발 환경 설정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>스프링 프로젝트 세팅</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -260,6 +256,14 @@
   </si>
   <si>
     <t>회원 공통</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>환경 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이클립스 환경 설정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -547,6 +551,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -563,18 +579,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -877,47 +881,47 @@
   <sheetData>
     <row r="1" spans="1:40" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="C1" s="18"/>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
-      <c r="V1" s="24"/>
-      <c r="W1" s="24"/>
-      <c r="X1" s="24"/>
-      <c r="Y1" s="24"/>
-      <c r="Z1" s="24"/>
-      <c r="AA1" s="24"/>
-      <c r="AB1" s="24"/>
-      <c r="AC1" s="22" t="s">
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
+      <c r="V1" s="28"/>
+      <c r="W1" s="28"/>
+      <c r="X1" s="28"/>
+      <c r="Y1" s="28"/>
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="28"/>
+      <c r="AB1" s="28"/>
+      <c r="AC1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="AD1" s="22"/>
-      <c r="AE1" s="22"/>
-      <c r="AF1" s="22"/>
-      <c r="AG1" s="22"/>
-      <c r="AH1" s="22"/>
-      <c r="AI1" s="22"/>
-      <c r="AJ1" s="22"/>
-      <c r="AK1" s="22"/>
-      <c r="AL1" s="22"/>
-      <c r="AM1" s="22"/>
-      <c r="AN1" s="22"/>
+      <c r="AD1" s="26"/>
+      <c r="AE1" s="26"/>
+      <c r="AF1" s="26"/>
+      <c r="AG1" s="26"/>
+      <c r="AH1" s="26"/>
+      <c r="AI1" s="26"/>
+      <c r="AJ1" s="26"/>
+      <c r="AK1" s="26"/>
+      <c r="AL1" s="26"/>
+      <c r="AM1" s="26"/>
+      <c r="AN1" s="26"/>
     </row>
     <row r="2" spans="1:40" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C2" s="18"/>
@@ -2137,7 +2141,7 @@
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="I10" sqref="I10"/>
+      <selection pane="bottomRight" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2150,55 +2154,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="18"/>
+      <c r="D1" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
+      <c r="V1" s="28"/>
+      <c r="W1" s="28"/>
+      <c r="X1" s="28"/>
+      <c r="Y1" s="28"/>
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="28"/>
+      <c r="AB1" s="28"/>
+      <c r="AC1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD1" s="26"/>
+      <c r="AE1" s="26"/>
+      <c r="AF1" s="26"/>
+      <c r="AG1" s="26"/>
+      <c r="AH1" s="26"/>
+      <c r="AI1" s="26"/>
+      <c r="AJ1" s="26"/>
+      <c r="AK1" s="26"/>
+      <c r="AL1" s="26"/>
+      <c r="AM1" s="26"/>
+      <c r="AN1" s="26"/>
+    </row>
+    <row r="2" spans="1:40" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="24" t="s">
         <v>55</v>
-      </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
-      <c r="V1" s="24"/>
-      <c r="W1" s="24"/>
-      <c r="X1" s="24"/>
-      <c r="Y1" s="24"/>
-      <c r="Z1" s="24"/>
-      <c r="AA1" s="24"/>
-      <c r="AB1" s="24"/>
-      <c r="AC1" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD1" s="22"/>
-      <c r="AE1" s="22"/>
-      <c r="AF1" s="22"/>
-      <c r="AG1" s="22"/>
-      <c r="AH1" s="22"/>
-      <c r="AI1" s="22"/>
-      <c r="AJ1" s="22"/>
-      <c r="AK1" s="22"/>
-      <c r="AL1" s="22"/>
-      <c r="AM1" s="22"/>
-      <c r="AN1" s="22"/>
-    </row>
-    <row r="2" spans="1:40" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="30" t="s">
-        <v>56</v>
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="4">
@@ -2210,10 +2214,10 @@
       <c r="F2" s="1">
         <v>8</v>
       </c>
-      <c r="G2" s="28">
+      <c r="G2" s="22">
         <v>9</v>
       </c>
-      <c r="H2" s="28">
+      <c r="H2" s="22">
         <v>10</v>
       </c>
       <c r="I2" s="1">
@@ -2231,10 +2235,10 @@
       <c r="M2" s="1">
         <v>15</v>
       </c>
-      <c r="N2" s="28">
+      <c r="N2" s="22">
         <v>16</v>
       </c>
-      <c r="O2" s="28">
+      <c r="O2" s="22">
         <v>17</v>
       </c>
       <c r="P2" s="1">
@@ -2252,10 +2256,10 @@
       <c r="T2" s="1">
         <v>22</v>
       </c>
-      <c r="U2" s="28">
+      <c r="U2" s="22">
         <v>23</v>
       </c>
-      <c r="V2" s="28">
+      <c r="V2" s="22">
         <v>24</v>
       </c>
       <c r="W2" s="1">
@@ -2273,10 +2277,10 @@
       <c r="AA2" s="1">
         <v>29</v>
       </c>
-      <c r="AB2" s="28">
+      <c r="AB2" s="22">
         <v>30</v>
       </c>
-      <c r="AC2" s="28">
+      <c r="AC2" s="22">
         <v>1</v>
       </c>
       <c r="AD2" s="1">
@@ -2294,10 +2298,10 @@
       <c r="AH2" s="1">
         <v>6</v>
       </c>
-      <c r="AI2" s="28">
+      <c r="AI2" s="22">
         <v>7</v>
       </c>
-      <c r="AJ2" s="28">
+      <c r="AJ2" s="22">
         <v>8</v>
       </c>
       <c r="AK2" s="1">
@@ -2314,8 +2318,8 @@
       </c>
     </row>
     <row r="3" spans="1:40" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="31" t="s">
-        <v>57</v>
+      <c r="B3" s="25" t="s">
+        <v>56</v>
       </c>
       <c r="C3" s="18"/>
       <c r="D3" s="4" t="s">
@@ -2344,11 +2348,11 @@
       </c>
     </row>
     <row r="4" spans="1:40" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="25" t="s">
-        <v>48</v>
+      <c r="A4" s="29" t="s">
+        <v>58</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>47</v>
@@ -2358,19 +2362,19 @@
       <c r="F4" s="20"/>
     </row>
     <row r="5" spans="1:40" s="21" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="25"/>
+      <c r="A5" s="29"/>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C5" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
     </row>
     <row r="6" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="25" t="s">
-        <v>58</v>
+      <c r="A6" s="29" t="s">
+        <v>57</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -2382,7 +2386,7 @@
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
-      <c r="H6" s="20"/>
+      <c r="H6" s="23"/>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
@@ -2415,7 +2419,7 @@
       <c r="AM6" s="1"/>
     </row>
     <row r="7" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="25"/>
+      <c r="A7" s="29"/>
       <c r="B7" t="s">
         <v>5</v>
       </c>
@@ -2425,11 +2429,11 @@
       <c r="D7" s="13"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
       <c r="N7" s="7"/>
@@ -2458,7 +2462,7 @@
       <c r="AK7" s="8"/>
     </row>
     <row r="8" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="29" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
@@ -2471,7 +2475,7 @@
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
-      <c r="H8" s="29"/>
+      <c r="H8" s="23"/>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
@@ -2503,7 +2507,7 @@
       <c r="AK8" s="8"/>
     </row>
     <row r="9" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="25"/>
+      <c r="A9" s="29"/>
       <c r="B9" t="s">
         <v>8</v>
       </c>
@@ -2513,11 +2517,11 @@
       <c r="D9" s="13"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
@@ -2546,7 +2550,7 @@
       <c r="AK9" s="8"/>
     </row>
     <row r="10" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="25"/>
+      <c r="A10" s="29"/>
       <c r="B10" t="s">
         <v>9</v>
       </c>
@@ -2558,8 +2562,8 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
@@ -2589,7 +2593,7 @@
       <c r="AK10" s="8"/>
     </row>
     <row r="11" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="29" t="s">
         <v>11</v>
       </c>
       <c r="B11" t="s">
@@ -2634,7 +2638,7 @@
       <c r="AK11" s="8"/>
     </row>
     <row r="12" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="25"/>
+      <c r="A12" s="29"/>
       <c r="B12" t="s">
         <v>12</v>
       </c>
@@ -2691,9 +2695,9 @@
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
@@ -2765,7 +2769,7 @@
       <c r="AK14" s="11"/>
     </row>
     <row r="15" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="29" t="s">
         <v>15</v>
       </c>
       <c r="B15" t="s">
@@ -2807,7 +2811,7 @@
       <c r="AK15" s="8"/>
     </row>
     <row r="16" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="25"/>
+      <c r="A16" s="29"/>
       <c r="B16" t="s">
         <v>17</v>
       </c>
@@ -2847,7 +2851,7 @@
       <c r="AK16" s="8"/>
     </row>
     <row r="17" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="25"/>
+      <c r="A17" s="29"/>
       <c r="B17" t="s">
         <v>18</v>
       </c>
@@ -2887,7 +2891,7 @@
       <c r="AK17" s="8"/>
     </row>
     <row r="18" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="25"/>
+      <c r="A18" s="29"/>
       <c r="B18" t="s">
         <v>19</v>
       </c>
@@ -2927,7 +2931,7 @@
       <c r="AK18" s="8"/>
     </row>
     <row r="19" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="25"/>
+      <c r="A19" s="29"/>
       <c r="B19" t="s">
         <v>20</v>
       </c>
@@ -2967,7 +2971,7 @@
       <c r="AK19" s="8"/>
     </row>
     <row r="20" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="25"/>
+      <c r="A20" s="29"/>
       <c r="B20" t="s">
         <v>21</v>
       </c>
@@ -3007,7 +3011,7 @@
       <c r="AK20" s="8"/>
     </row>
     <row r="21" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="25" t="s">
+      <c r="A21" s="29" t="s">
         <v>22</v>
       </c>
       <c r="B21" t="s">
@@ -3049,7 +3053,7 @@
       <c r="AK21" s="8"/>
     </row>
     <row r="22" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="25"/>
+      <c r="A22" s="29"/>
       <c r="B22" t="s">
         <v>24</v>
       </c>
@@ -3216,7 +3220,7 @@
       <c r="AK25" s="7"/>
     </row>
     <row r="26" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="25" t="s">
+      <c r="A26" s="29" t="s">
         <v>30</v>
       </c>
       <c r="B26" t="s">
@@ -3258,7 +3262,7 @@
       <c r="AK26" s="7"/>
     </row>
     <row r="27" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="26"/>
+      <c r="A27" s="30"/>
       <c r="B27" t="s">
         <v>32</v>
       </c>
@@ -3298,7 +3302,7 @@
       <c r="AK27" s="9"/>
     </row>
     <row r="28" spans="1:37" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="27" t="s">
+      <c r="A28" s="31" t="s">
         <v>30</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -3341,7 +3345,7 @@
       <c r="AK28" s="12"/>
     </row>
     <row r="29" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="26"/>
+      <c r="A29" s="30"/>
       <c r="B29" t="s">
         <v>33</v>
       </c>
@@ -3407,11 +3411,11 @@
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="D1:AB1"/>
     <mergeCell ref="AC1:AN1"/>
-    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="A15:A20"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/document/프로젝트 일정표.xlsx
+++ b/document/프로젝트 일정표.xlsx
@@ -2141,7 +2141,7 @@
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J7" sqref="J7"/>
+      <selection pane="bottomRight" activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2390,7 +2390,7 @@
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
+      <c r="L6" s="23"/>
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
@@ -2434,7 +2434,7 @@
       <c r="I7" s="23"/>
       <c r="J7" s="23"/>
       <c r="K7" s="23"/>
-      <c r="L7" s="7"/>
+      <c r="L7" s="23"/>
       <c r="M7" s="7"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
@@ -2479,7 +2479,7 @@
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
+      <c r="L8" s="23"/>
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
@@ -2522,7 +2522,7 @@
       <c r="I9" s="23"/>
       <c r="J9" s="23"/>
       <c r="K9" s="23"/>
-      <c r="L9" s="7"/>
+      <c r="L9" s="23"/>
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>

--- a/document/프로젝트 일정표.xlsx
+++ b/document/프로젝트 일정표.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="59">
   <si>
     <t>10월</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -227,14 +227,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(JH)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(SH)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CW, MY</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -264,6 +256,10 @@
   </si>
   <si>
     <t>이클립스 환경 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JH, SH</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2141,7 +2137,7 @@
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="M10" sqref="M10"/>
+      <selection pane="bottomRight" activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2155,7 +2151,7 @@
   <sheetData>
     <row r="1" spans="1:40" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B1" s="22" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C1" s="18"/>
       <c r="D1" s="27" t="s">
@@ -2202,7 +2198,7 @@
     </row>
     <row r="2" spans="1:40" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B2" s="24" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="4">
@@ -2319,7 +2315,7 @@
     </row>
     <row r="3" spans="1:40" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="25" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C3" s="18"/>
       <c r="D3" s="4" t="s">
@@ -2349,10 +2345,10 @@
     </row>
     <row r="4" spans="1:40" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>47</v>
@@ -2364,17 +2360,17 @@
     <row r="5" spans="1:40" s="21" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="29"/>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I5" s="20"/>
       <c r="J5" s="20"/>
     </row>
     <row r="6" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -2386,12 +2382,12 @@
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
-      <c r="H6" s="23"/>
+      <c r="H6" s="20"/>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="7"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
       <c r="P6" s="7"/>
@@ -2429,13 +2425,13 @@
       <c r="D7" s="13"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="7"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
       <c r="P7" s="7"/>
@@ -2480,7 +2476,7 @@
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
       <c r="L8" s="23"/>
-      <c r="M8" s="7"/>
+      <c r="M8" s="23"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
       <c r="P8" s="7"/>
@@ -2523,7 +2519,7 @@
       <c r="J9" s="23"/>
       <c r="K9" s="23"/>
       <c r="L9" s="23"/>
-      <c r="M9" s="7"/>
+      <c r="M9" s="23"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
       <c r="P9" s="7"/>
@@ -2555,7 +2551,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="7"/>
@@ -2600,7 +2596,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D11" s="13"/>
       <c r="E11" s="7"/>
@@ -2611,7 +2607,7 @@
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
+      <c r="M11" s="23"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
       <c r="P11" s="7"/>
@@ -2643,7 +2639,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="7"/>

--- a/document/프로젝트 일정표.xlsx
+++ b/document/프로젝트 일정표.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="69">
   <si>
     <t>10월</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -260,6 +260,46 @@
   </si>
   <si>
     <t>JH, SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>휴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한글날</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기업 리스트 조회(페이징 포함)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공통 홈화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기업 추천(알고리즘 및 총점)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SH</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -292,7 +332,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -314,6 +354,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -480,7 +526,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -557,6 +603,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -877,47 +929,47 @@
   <sheetData>
     <row r="1" spans="1:40" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="C1" s="18"/>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
-      <c r="U1" s="28"/>
-      <c r="V1" s="28"/>
-      <c r="W1" s="28"/>
-      <c r="X1" s="28"/>
-      <c r="Y1" s="28"/>
-      <c r="Z1" s="28"/>
-      <c r="AA1" s="28"/>
-      <c r="AB1" s="28"/>
-      <c r="AC1" s="26" t="s">
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
+      <c r="W1" s="30"/>
+      <c r="X1" s="30"/>
+      <c r="Y1" s="30"/>
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="30"/>
+      <c r="AB1" s="30"/>
+      <c r="AC1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="AD1" s="26"/>
-      <c r="AE1" s="26"/>
-      <c r="AF1" s="26"/>
-      <c r="AG1" s="26"/>
-      <c r="AH1" s="26"/>
-      <c r="AI1" s="26"/>
-      <c r="AJ1" s="26"/>
-      <c r="AK1" s="26"/>
-      <c r="AL1" s="26"/>
-      <c r="AM1" s="26"/>
-      <c r="AN1" s="26"/>
+      <c r="AD1" s="28"/>
+      <c r="AE1" s="28"/>
+      <c r="AF1" s="28"/>
+      <c r="AG1" s="28"/>
+      <c r="AH1" s="28"/>
+      <c r="AI1" s="28"/>
+      <c r="AJ1" s="28"/>
+      <c r="AK1" s="28"/>
+      <c r="AL1" s="28"/>
+      <c r="AM1" s="28"/>
+      <c r="AN1" s="28"/>
     </row>
     <row r="2" spans="1:40" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C2" s="18"/>
@@ -2131,13 +2183,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN42"/>
+  <dimension ref="A1:AN44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="N11" sqref="N11"/>
+      <selection pane="bottomRight" activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2154,47 +2206,47 @@
         <v>52</v>
       </c>
       <c r="C1" s="18"/>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
-      <c r="U1" s="28"/>
-      <c r="V1" s="28"/>
-      <c r="W1" s="28"/>
-      <c r="X1" s="28"/>
-      <c r="Y1" s="28"/>
-      <c r="Z1" s="28"/>
-      <c r="AA1" s="28"/>
-      <c r="AB1" s="28"/>
-      <c r="AC1" s="26" t="s">
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
+      <c r="W1" s="30"/>
+      <c r="X1" s="30"/>
+      <c r="Y1" s="30"/>
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="30"/>
+      <c r="AB1" s="30"/>
+      <c r="AC1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="AD1" s="26"/>
-      <c r="AE1" s="26"/>
-      <c r="AF1" s="26"/>
-      <c r="AG1" s="26"/>
-      <c r="AH1" s="26"/>
-      <c r="AI1" s="26"/>
-      <c r="AJ1" s="26"/>
-      <c r="AK1" s="26"/>
-      <c r="AL1" s="26"/>
-      <c r="AM1" s="26"/>
-      <c r="AN1" s="26"/>
+      <c r="AD1" s="28"/>
+      <c r="AE1" s="28"/>
+      <c r="AF1" s="28"/>
+      <c r="AG1" s="28"/>
+      <c r="AH1" s="28"/>
+      <c r="AI1" s="28"/>
+      <c r="AJ1" s="28"/>
+      <c r="AK1" s="28"/>
+      <c r="AL1" s="28"/>
+      <c r="AM1" s="28"/>
+      <c r="AN1" s="28"/>
     </row>
     <row r="2" spans="1:40" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B2" s="24" t="s">
@@ -2267,10 +2319,10 @@
       <c r="Y2" s="1">
         <v>27</v>
       </c>
-      <c r="Z2" s="1">
+      <c r="Z2" s="27">
         <v>28</v>
       </c>
-      <c r="AA2" s="1">
+      <c r="AA2" s="27">
         <v>29</v>
       </c>
       <c r="AB2" s="22">
@@ -2279,10 +2331,10 @@
       <c r="AC2" s="22">
         <v>1</v>
       </c>
-      <c r="AD2" s="1">
+      <c r="AD2" s="27">
         <v>2</v>
       </c>
-      <c r="AE2" s="1">
+      <c r="AE2" s="27">
         <v>3</v>
       </c>
       <c r="AF2" s="1">
@@ -2300,7 +2352,7 @@
       <c r="AJ2" s="22">
         <v>8</v>
       </c>
-      <c r="AK2" s="1">
+      <c r="AK2" s="27">
         <v>9</v>
       </c>
       <c r="AL2" s="1">
@@ -2330,21 +2382,33 @@
       <c r="Y3" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="Z3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="AF3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AL3" s="1" t="s">
-        <v>39</v>
+      <c r="AK3" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="AM3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AN3" s="1" t="s">
-        <v>2</v>
+      <c r="AN3" s="26" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:40" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="31" t="s">
         <v>56</v>
       </c>
       <c r="B4" t="s">
@@ -2358,7 +2422,7 @@
       <c r="F4" s="20"/>
     </row>
     <row r="5" spans="1:40" s="21" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="29"/>
+      <c r="A5" s="31"/>
       <c r="B5" t="s">
         <v>51</v>
       </c>
@@ -2369,7 +2433,7 @@
       <c r="J5" s="20"/>
     </row>
     <row r="6" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="31" t="s">
         <v>55</v>
       </c>
       <c r="B6" t="s">
@@ -2415,7 +2479,7 @@
       <c r="AM6" s="1"/>
     </row>
     <row r="7" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="29"/>
+      <c r="A7" s="31"/>
       <c r="B7" t="s">
         <v>5</v>
       </c>
@@ -2458,30 +2522,28 @@
       <c r="AK7" s="8"/>
     </row>
     <row r="8" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="29" t="s">
-        <v>6</v>
-      </c>
+      <c r="A8" s="31"/>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
+      <c r="R8" s="23"/>
       <c r="S8" s="8"/>
       <c r="T8" s="8"/>
       <c r="U8" s="8"/>
@@ -2503,27 +2565,29 @@
       <c r="AK8" s="8"/>
     </row>
     <row r="9" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="29"/>
+      <c r="A9" s="31" t="s">
+        <v>6</v>
+      </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
-      <c r="G9" s="23"/>
+      <c r="G9" s="7"/>
       <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
       <c r="L9" s="23"/>
       <c r="M9" s="23"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
       <c r="R9" s="7"/>
       <c r="S9" s="8"/>
       <c r="T9" s="8"/>
@@ -2546,27 +2610,27 @@
       <c r="AK9" s="8"/>
     </row>
     <row r="10" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="29"/>
+      <c r="A10" s="31"/>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
       <c r="I10" s="23"/>
       <c r="J10" s="23"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
       <c r="R10" s="7"/>
       <c r="S10" s="8"/>
       <c r="T10" s="8"/>
@@ -2589,14 +2653,12 @@
       <c r="AK10" s="8"/>
     </row>
     <row r="11" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="29" t="s">
-        <v>11</v>
-      </c>
+      <c r="A11" s="31"/>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D11" s="13"/>
       <c r="E11" s="7"/>
@@ -2607,12 +2669,12 @@
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
-      <c r="M11" s="23"/>
+      <c r="M11" s="7"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
+      <c r="R11" s="23"/>
       <c r="S11" s="8"/>
       <c r="T11" s="8"/>
       <c r="U11" s="8"/>
@@ -2634,9 +2696,9 @@
       <c r="AK11" s="8"/>
     </row>
     <row r="12" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="29"/>
+      <c r="A12" s="31"/>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C12" s="18" t="s">
         <v>58</v>
@@ -2646,15 +2708,15 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
       <c r="R12" s="7"/>
       <c r="S12" s="8"/>
       <c r="T12" s="8"/>
@@ -2677,179 +2739,187 @@
       <c r="AK12" s="8"/>
     </row>
     <row r="13" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>13</v>
+      <c r="A13" s="31" t="s">
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C13" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="9"/>
-      <c r="S13" s="10"/>
-      <c r="T13" s="10"/>
-      <c r="U13" s="10"/>
-      <c r="V13" s="10"/>
-      <c r="W13" s="10"/>
-      <c r="X13" s="10"/>
-      <c r="Y13" s="10"/>
-      <c r="Z13" s="10"/>
-      <c r="AA13" s="10"/>
-      <c r="AB13" s="10"/>
-      <c r="AC13" s="10"/>
-      <c r="AD13" s="10"/>
-      <c r="AE13" s="10"/>
-      <c r="AF13" s="10"/>
-      <c r="AG13" s="10"/>
-      <c r="AH13" s="10"/>
-      <c r="AI13" s="10"/>
-      <c r="AJ13" s="10"/>
-      <c r="AK13" s="10"/>
-    </row>
-    <row r="14" spans="1:40" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+      <c r="D13" s="13"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="8"/>
+      <c r="X13" s="8"/>
+      <c r="Y13" s="8"/>
+      <c r="Z13" s="8"/>
+      <c r="AA13" s="8"/>
+      <c r="AB13" s="8"/>
+      <c r="AC13" s="8"/>
+      <c r="AD13" s="8"/>
+      <c r="AE13" s="8"/>
+      <c r="AF13" s="8"/>
+      <c r="AG13" s="8"/>
+      <c r="AH13" s="8"/>
+      <c r="AI13" s="8"/>
+      <c r="AJ13" s="8"/>
+      <c r="AK13" s="8"/>
+    </row>
+    <row r="14" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="31"/>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="13"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="23"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="8"/>
+      <c r="X14" s="8"/>
+      <c r="Y14" s="8"/>
+      <c r="Z14" s="8"/>
+      <c r="AA14" s="8"/>
+      <c r="AB14" s="8"/>
+      <c r="AC14" s="8"/>
+      <c r="AD14" s="8"/>
+      <c r="AE14" s="8"/>
+      <c r="AF14" s="8"/>
+      <c r="AG14" s="8"/>
+      <c r="AH14" s="8"/>
+      <c r="AI14" s="8"/>
+      <c r="AJ14" s="8"/>
+      <c r="AK14" s="8"/>
+    </row>
+    <row r="15" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="14"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="10"/>
+      <c r="W15" s="10"/>
+      <c r="X15" s="10"/>
+      <c r="Y15" s="10"/>
+      <c r="Z15" s="10"/>
+      <c r="AA15" s="10"/>
+      <c r="AB15" s="10"/>
+      <c r="AC15" s="10"/>
+      <c r="AD15" s="10"/>
+      <c r="AE15" s="10"/>
+      <c r="AF15" s="10"/>
+      <c r="AG15" s="10"/>
+      <c r="AH15" s="10"/>
+      <c r="AI15" s="10"/>
+      <c r="AJ15" s="10"/>
+      <c r="AK15" s="10"/>
+    </row>
+    <row r="16" spans="1:40" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B16" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="11"/>
-      <c r="S14" s="12"/>
-      <c r="T14" s="12"/>
-      <c r="U14" s="12"/>
-      <c r="V14" s="12"/>
-      <c r="W14" s="12"/>
-      <c r="X14" s="12"/>
-      <c r="Y14" s="12"/>
-      <c r="Z14" s="11"/>
-      <c r="AA14" s="11"/>
-      <c r="AB14" s="11"/>
-      <c r="AC14" s="11"/>
-      <c r="AD14" s="11"/>
-      <c r="AE14" s="11"/>
-      <c r="AF14" s="11"/>
-      <c r="AG14" s="11"/>
-      <c r="AH14" s="11"/>
-      <c r="AI14" s="11"/>
-      <c r="AJ14" s="11"/>
-      <c r="AK14" s="11"/>
-    </row>
-    <row r="15" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="29" t="s">
+      <c r="C16" s="19"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="12"/>
+      <c r="X16" s="12"/>
+      <c r="Y16" s="12"/>
+      <c r="Z16" s="11"/>
+      <c r="AA16" s="11"/>
+      <c r="AB16" s="11"/>
+      <c r="AC16" s="11"/>
+      <c r="AD16" s="11"/>
+      <c r="AE16" s="11"/>
+      <c r="AF16" s="11"/>
+      <c r="AG16" s="11"/>
+      <c r="AH16" s="11"/>
+      <c r="AI16" s="11"/>
+      <c r="AJ16" s="11"/>
+      <c r="AK16" s="11"/>
+    </row>
+    <row r="17" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B17" t="s">
         <v>16</v>
-      </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="7"/>
-      <c r="T15" s="7"/>
-      <c r="U15" s="7"/>
-      <c r="V15" s="7"/>
-      <c r="W15" s="7"/>
-      <c r="X15" s="7"/>
-      <c r="Y15" s="7"/>
-      <c r="Z15" s="8"/>
-      <c r="AA15" s="8"/>
-      <c r="AB15" s="8"/>
-      <c r="AC15" s="8"/>
-      <c r="AD15" s="8"/>
-      <c r="AE15" s="8"/>
-      <c r="AF15" s="8"/>
-      <c r="AG15" s="8"/>
-      <c r="AH15" s="8"/>
-      <c r="AI15" s="8"/>
-      <c r="AJ15" s="8"/>
-      <c r="AK15" s="8"/>
-    </row>
-    <row r="16" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="29"/>
-      <c r="B16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="16"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="8"/>
-      <c r="S16" s="7"/>
-      <c r="T16" s="7"/>
-      <c r="U16" s="7"/>
-      <c r="V16" s="7"/>
-      <c r="W16" s="7"/>
-      <c r="X16" s="7"/>
-      <c r="Y16" s="7"/>
-      <c r="Z16" s="8"/>
-      <c r="AA16" s="8"/>
-      <c r="AB16" s="8"/>
-      <c r="AC16" s="8"/>
-      <c r="AD16" s="8"/>
-      <c r="AE16" s="8"/>
-      <c r="AF16" s="8"/>
-      <c r="AG16" s="8"/>
-      <c r="AH16" s="8"/>
-      <c r="AI16" s="8"/>
-      <c r="AJ16" s="8"/>
-      <c r="AK16" s="8"/>
-    </row>
-    <row r="17" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="29"/>
-      <c r="B17" t="s">
-        <v>18</v>
       </c>
       <c r="D17" s="16"/>
       <c r="E17" s="8"/>
@@ -2887,9 +2957,9 @@
       <c r="AK17" s="8"/>
     </row>
     <row r="18" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="29"/>
+      <c r="A18" s="31"/>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D18" s="16"/>
       <c r="E18" s="8"/>
@@ -2927,9 +2997,9 @@
       <c r="AK18" s="8"/>
     </row>
     <row r="19" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="29"/>
+      <c r="A19" s="31"/>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="D19" s="16"/>
       <c r="E19" s="8"/>
@@ -2967,9 +3037,9 @@
       <c r="AK19" s="8"/>
     </row>
     <row r="20" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="29"/>
+      <c r="A20" s="31"/>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D20" s="16"/>
       <c r="E20" s="8"/>
@@ -3007,11 +3077,9 @@
       <c r="AK20" s="8"/>
     </row>
     <row r="21" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="29" t="s">
-        <v>22</v>
-      </c>
+      <c r="A21" s="31"/>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D21" s="16"/>
       <c r="E21" s="8"/>
@@ -3049,9 +3117,9 @@
       <c r="AK21" s="8"/>
     </row>
     <row r="22" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="29"/>
+      <c r="A22" s="31"/>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D22" s="16"/>
       <c r="E22" s="8"/>
@@ -3089,261 +3157,260 @@
       <c r="AK22" s="8"/>
     </row>
     <row r="23" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>13</v>
+      <c r="A23" s="31" t="s">
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" s="17"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="10"/>
-      <c r="R23" s="10"/>
-      <c r="S23" s="9"/>
-      <c r="T23" s="9"/>
-      <c r="U23" s="9"/>
-      <c r="V23" s="9"/>
-      <c r="W23" s="9"/>
-      <c r="X23" s="9"/>
-      <c r="Y23" s="9"/>
-      <c r="Z23" s="10"/>
-      <c r="AA23" s="10"/>
-      <c r="AB23" s="10"/>
-      <c r="AC23" s="10"/>
-      <c r="AD23" s="10"/>
-      <c r="AE23" s="10"/>
-      <c r="AF23" s="10"/>
-      <c r="AG23" s="10"/>
-      <c r="AH23" s="10"/>
-      <c r="AI23" s="10"/>
-      <c r="AJ23" s="10"/>
-      <c r="AK23" s="10"/>
-    </row>
-    <row r="24" spans="1:37" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" s="19"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="11"/>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="11"/>
-      <c r="R24" s="11"/>
-      <c r="S24" s="11"/>
-      <c r="T24" s="11"/>
-      <c r="U24" s="11"/>
-      <c r="V24" s="11"/>
-      <c r="W24" s="11"/>
-      <c r="X24" s="11"/>
-      <c r="Y24" s="11"/>
-      <c r="Z24" s="12"/>
-      <c r="AA24" s="12"/>
-      <c r="AB24" s="12"/>
-      <c r="AC24" s="12"/>
-      <c r="AD24" s="12"/>
-      <c r="AE24" s="12"/>
-      <c r="AF24" s="12"/>
-      <c r="AG24" s="12"/>
-      <c r="AH24" s="12"/>
-      <c r="AI24" s="12"/>
-      <c r="AJ24" s="12"/>
-      <c r="AK24" s="12"/>
+        <v>23</v>
+      </c>
+      <c r="D23" s="16"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="7"/>
+      <c r="T23" s="7"/>
+      <c r="U23" s="7"/>
+      <c r="V23" s="7"/>
+      <c r="W23" s="7"/>
+      <c r="X23" s="7"/>
+      <c r="Y23" s="7"/>
+      <c r="Z23" s="8"/>
+      <c r="AA23" s="8"/>
+      <c r="AB23" s="8"/>
+      <c r="AC23" s="8"/>
+      <c r="AD23" s="8"/>
+      <c r="AE23" s="8"/>
+      <c r="AF23" s="8"/>
+      <c r="AG23" s="8"/>
+      <c r="AH23" s="8"/>
+      <c r="AI23" s="8"/>
+      <c r="AJ23" s="8"/>
+      <c r="AK23" s="8"/>
+    </row>
+    <row r="24" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="31"/>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="16"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="7"/>
+      <c r="T24" s="7"/>
+      <c r="U24" s="7"/>
+      <c r="V24" s="7"/>
+      <c r="W24" s="7"/>
+      <c r="X24" s="7"/>
+      <c r="Y24" s="7"/>
+      <c r="Z24" s="8"/>
+      <c r="AA24" s="8"/>
+      <c r="AB24" s="8"/>
+      <c r="AC24" s="8"/>
+      <c r="AD24" s="8"/>
+      <c r="AE24" s="8"/>
+      <c r="AF24" s="8"/>
+      <c r="AG24" s="8"/>
+      <c r="AH24" s="8"/>
+      <c r="AI24" s="8"/>
+      <c r="AJ24" s="8"/>
+      <c r="AK24" s="8"/>
     </row>
     <row r="25" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="17"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="9"/>
+      <c r="T25" s="9"/>
+      <c r="U25" s="9"/>
+      <c r="V25" s="9"/>
+      <c r="W25" s="9"/>
+      <c r="X25" s="9"/>
+      <c r="Y25" s="9"/>
+      <c r="Z25" s="10"/>
+      <c r="AA25" s="10"/>
+      <c r="AB25" s="10"/>
+      <c r="AC25" s="10"/>
+      <c r="AD25" s="10"/>
+      <c r="AE25" s="10"/>
+      <c r="AF25" s="10"/>
+      <c r="AG25" s="10"/>
+      <c r="AH25" s="10"/>
+      <c r="AI25" s="10"/>
+      <c r="AJ25" s="10"/>
+      <c r="AK25" s="10"/>
+    </row>
+    <row r="26" spans="1:37" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="19"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="11"/>
+      <c r="T26" s="11"/>
+      <c r="U26" s="11"/>
+      <c r="V26" s="11"/>
+      <c r="W26" s="11"/>
+      <c r="X26" s="11"/>
+      <c r="Y26" s="11"/>
+      <c r="Z26" s="12"/>
+      <c r="AA26" s="12"/>
+      <c r="AB26" s="12"/>
+      <c r="AC26" s="12"/>
+      <c r="AD26" s="12"/>
+      <c r="AE26" s="12"/>
+      <c r="AF26" s="12"/>
+      <c r="AG26" s="12"/>
+      <c r="AH26" s="12"/>
+      <c r="AI26" s="12"/>
+      <c r="AJ26" s="12"/>
+      <c r="AK26" s="12"/>
+    </row>
+    <row r="27" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B27" t="s">
         <v>29</v>
       </c>
-      <c r="D25" s="16"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="8"/>
-      <c r="R25" s="8"/>
-      <c r="S25" s="8"/>
-      <c r="T25" s="8"/>
-      <c r="U25" s="8"/>
-      <c r="V25" s="8"/>
-      <c r="W25" s="8"/>
-      <c r="X25" s="8"/>
-      <c r="Y25" s="8"/>
-      <c r="Z25" s="7"/>
-      <c r="AA25" s="7"/>
-      <c r="AB25" s="7"/>
-      <c r="AC25" s="7"/>
-      <c r="AD25" s="7"/>
-      <c r="AE25" s="7"/>
-      <c r="AF25" s="7"/>
-      <c r="AG25" s="7"/>
-      <c r="AH25" s="7"/>
-      <c r="AI25" s="7"/>
-      <c r="AJ25" s="7"/>
-      <c r="AK25" s="7"/>
-    </row>
-    <row r="26" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" t="s">
-        <v>31</v>
-      </c>
-      <c r="D26" s="16"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="8"/>
-      <c r="Q26" s="8"/>
-      <c r="R26" s="8"/>
-      <c r="S26" s="8"/>
-      <c r="T26" s="8"/>
-      <c r="U26" s="8"/>
-      <c r="V26" s="8"/>
-      <c r="W26" s="8"/>
-      <c r="X26" s="8"/>
-      <c r="Y26" s="8"/>
-      <c r="Z26" s="7"/>
-      <c r="AA26" s="7"/>
-      <c r="AB26" s="7"/>
-      <c r="AC26" s="7"/>
-      <c r="AD26" s="7"/>
-      <c r="AE26" s="7"/>
-      <c r="AF26" s="7"/>
-      <c r="AG26" s="7"/>
-      <c r="AH26" s="7"/>
-      <c r="AI26" s="7"/>
-      <c r="AJ26" s="7"/>
-      <c r="AK26" s="7"/>
-    </row>
-    <row r="27" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="30"/>
-      <c r="B27" t="s">
-        <v>32</v>
-      </c>
-      <c r="D27" s="17"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="10"/>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="10"/>
-      <c r="R27" s="10"/>
-      <c r="S27" s="10"/>
-      <c r="T27" s="10"/>
-      <c r="U27" s="10"/>
-      <c r="V27" s="10"/>
-      <c r="W27" s="10"/>
-      <c r="X27" s="10"/>
-      <c r="Y27" s="10"/>
-      <c r="Z27" s="9"/>
-      <c r="AA27" s="9"/>
-      <c r="AB27" s="9"/>
-      <c r="AC27" s="9"/>
-      <c r="AD27" s="9"/>
-      <c r="AE27" s="9"/>
-      <c r="AF27" s="9"/>
-      <c r="AG27" s="9"/>
-      <c r="AH27" s="9"/>
-      <c r="AI27" s="9"/>
-      <c r="AJ27" s="9"/>
-      <c r="AK27" s="9"/>
-    </row>
-    <row r="28" spans="1:37" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D27" s="16"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8"/>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="8"/>
+      <c r="S27" s="8"/>
+      <c r="T27" s="8"/>
+      <c r="U27" s="8"/>
+      <c r="V27" s="8"/>
+      <c r="W27" s="8"/>
+      <c r="X27" s="8"/>
+      <c r="Y27" s="8"/>
+      <c r="Z27" s="7"/>
+      <c r="AA27" s="7"/>
+      <c r="AB27" s="7"/>
+      <c r="AC27" s="7"/>
+      <c r="AD27" s="7"/>
+      <c r="AE27" s="7"/>
+      <c r="AF27" s="7"/>
+      <c r="AG27" s="7"/>
+      <c r="AH27" s="7"/>
+      <c r="AI27" s="7"/>
+      <c r="AJ27" s="7"/>
+      <c r="AK27" s="7"/>
+    </row>
+    <row r="28" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C28" s="19"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="11"/>
-      <c r="O28" s="11"/>
-      <c r="P28" s="11"/>
-      <c r="Q28" s="11"/>
-      <c r="R28" s="11"/>
-      <c r="S28" s="11"/>
-      <c r="T28" s="11"/>
-      <c r="U28" s="11"/>
-      <c r="V28" s="11"/>
-      <c r="W28" s="11"/>
-      <c r="X28" s="11"/>
-      <c r="Y28" s="11"/>
-      <c r="Z28" s="11"/>
-      <c r="AA28" s="11"/>
-      <c r="AB28" s="11"/>
-      <c r="AC28" s="11"/>
-      <c r="AD28" s="11"/>
-      <c r="AE28" s="11"/>
-      <c r="AF28" s="12"/>
-      <c r="AG28" s="12"/>
-      <c r="AH28" s="12"/>
-      <c r="AI28" s="12"/>
-      <c r="AJ28" s="12"/>
-      <c r="AK28" s="12"/>
+      <c r="B28" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" s="16"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="8"/>
+      <c r="S28" s="8"/>
+      <c r="T28" s="8"/>
+      <c r="U28" s="8"/>
+      <c r="V28" s="8"/>
+      <c r="W28" s="8"/>
+      <c r="X28" s="8"/>
+      <c r="Y28" s="8"/>
+      <c r="Z28" s="7"/>
+      <c r="AA28" s="7"/>
+      <c r="AB28" s="7"/>
+      <c r="AC28" s="7"/>
+      <c r="AD28" s="7"/>
+      <c r="AE28" s="7"/>
+      <c r="AF28" s="7"/>
+      <c r="AG28" s="7"/>
+      <c r="AH28" s="7"/>
+      <c r="AI28" s="7"/>
+      <c r="AJ28" s="7"/>
+      <c r="AK28" s="7"/>
     </row>
     <row r="29" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="30"/>
+      <c r="A29" s="32"/>
       <c r="B29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D29" s="17"/>
       <c r="E29" s="10"/>
@@ -3367,12 +3434,12 @@
       <c r="W29" s="10"/>
       <c r="X29" s="10"/>
       <c r="Y29" s="10"/>
-      <c r="Z29" s="10"/>
-      <c r="AA29" s="10"/>
-      <c r="AB29" s="10"/>
-      <c r="AC29" s="10"/>
-      <c r="AD29" s="10"/>
-      <c r="AE29" s="10"/>
+      <c r="Z29" s="9"/>
+      <c r="AA29" s="9"/>
+      <c r="AB29" s="9"/>
+      <c r="AC29" s="9"/>
+      <c r="AD29" s="9"/>
+      <c r="AE29" s="9"/>
       <c r="AF29" s="9"/>
       <c r="AG29" s="9"/>
       <c r="AH29" s="9"/>
@@ -3381,15 +3448,96 @@
       <c r="AK29" s="9"/>
     </row>
     <row r="30" spans="1:37" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="2"/>
+      <c r="A30" s="33" t="s">
+        <v>30</v>
+      </c>
       <c r="B30" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="19"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="11"/>
+      <c r="S30" s="11"/>
+      <c r="T30" s="11"/>
+      <c r="U30" s="11"/>
+      <c r="V30" s="11"/>
+      <c r="W30" s="11"/>
+      <c r="X30" s="11"/>
+      <c r="Y30" s="11"/>
+      <c r="Z30" s="11"/>
+      <c r="AA30" s="11"/>
+      <c r="AB30" s="11"/>
+      <c r="AC30" s="11"/>
+      <c r="AD30" s="11"/>
+      <c r="AE30" s="11"/>
+      <c r="AF30" s="12"/>
+      <c r="AG30" s="12"/>
+      <c r="AH30" s="12"/>
+      <c r="AI30" s="12"/>
+      <c r="AJ30" s="12"/>
+      <c r="AK30" s="12"/>
+    </row>
+    <row r="31" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="32"/>
+      <c r="B31" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" s="17"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="10"/>
+      <c r="R31" s="10"/>
+      <c r="S31" s="10"/>
+      <c r="T31" s="10"/>
+      <c r="U31" s="10"/>
+      <c r="V31" s="10"/>
+      <c r="W31" s="10"/>
+      <c r="X31" s="10"/>
+      <c r="Y31" s="10"/>
+      <c r="Z31" s="10"/>
+      <c r="AA31" s="10"/>
+      <c r="AB31" s="10"/>
+      <c r="AC31" s="10"/>
+      <c r="AD31" s="10"/>
+      <c r="AE31" s="10"/>
+      <c r="AF31" s="9"/>
+      <c r="AG31" s="9"/>
+      <c r="AH31" s="9"/>
+      <c r="AI31" s="9"/>
+      <c r="AJ31" s="9"/>
+      <c r="AK31" s="9"/>
+    </row>
+    <row r="32" spans="1:37" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="2"/>
+      <c r="B32" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="19"/>
-      <c r="D30" s="6"/>
-    </row>
-    <row r="31" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="6"/>
+    </row>
     <row r="33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3400,18 +3548,20 @@
     <row r="40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="42" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A23:A24"/>
     <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
     <mergeCell ref="D1:AB1"/>
     <mergeCell ref="AC1:AN1"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A17:A22"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A6:A8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/document/프로젝트 일정표.xlsx
+++ b/document/프로젝트 일정표.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="75">
   <si>
     <t>10월</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -283,10 +283,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>기업 리스트 조회(페이징 포함)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MY</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -300,6 +296,34 @@
   </si>
   <si>
     <t>SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기업 리스트 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기업 리뷰 CRUD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판(이미지 제외)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID, PW 찾기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CW, SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Header, Nav 파트 통합</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2183,20 +2207,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN44"/>
+  <dimension ref="A1:AN46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="R14" sqref="R14"/>
+      <selection pane="bottomRight" activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="35.875" customWidth="1"/>
-    <col min="3" max="3" width="8.25" style="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.875" customWidth="1"/>
+    <col min="3" max="3" width="7.75" style="18" customWidth="1"/>
     <col min="4" max="4" width="5.625" style="5" customWidth="1"/>
     <col min="5" max="40" width="5.625" customWidth="1"/>
   </cols>
@@ -2524,21 +2548,21 @@
     <row r="8" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="31"/>
       <c r="B8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
       <c r="P8" s="7"/>
@@ -2565,11 +2589,9 @@
       <c r="AK8" s="8"/>
     </row>
     <row r="9" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="31" t="s">
-        <v>6</v>
-      </c>
+      <c r="A9" s="31"/>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="C9" s="18" t="s">
         <v>45</v>
@@ -2578,18 +2600,18 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="23"/>
+      <c r="H9" s="7"/>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="23"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
       <c r="R9" s="7"/>
-      <c r="S9" s="8"/>
+      <c r="S9" s="23"/>
       <c r="T9" s="8"/>
       <c r="U9" s="8"/>
       <c r="V9" s="8"/>
@@ -2612,27 +2634,27 @@
     <row r="10" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="31"/>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
       <c r="R10" s="7"/>
-      <c r="S10" s="8"/>
+      <c r="S10" s="23"/>
       <c r="T10" s="8"/>
       <c r="U10" s="8"/>
       <c r="V10" s="8"/>
@@ -2653,29 +2675,31 @@
       <c r="AK10" s="8"/>
     </row>
     <row r="11" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="31"/>
+      <c r="A11" s="31" t="s">
+        <v>6</v>
+      </c>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D11" s="13"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
+      <c r="H11" s="23"/>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
       <c r="R11" s="23"/>
-      <c r="S11" s="8"/>
+      <c r="S11" s="23"/>
       <c r="T11" s="8"/>
       <c r="U11" s="8"/>
       <c r="V11" s="8"/>
@@ -2698,27 +2722,27 @@
     <row r="12" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="31"/>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
       <c r="I12" s="23"/>
       <c r="J12" s="23"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
       <c r="P12" s="23"/>
       <c r="Q12" s="23"/>
       <c r="R12" s="7"/>
-      <c r="S12" s="8"/>
+      <c r="S12" s="23"/>
       <c r="T12" s="8"/>
       <c r="U12" s="8"/>
       <c r="V12" s="8"/>
@@ -2739,14 +2763,12 @@
       <c r="AK12" s="8"/>
     </row>
     <row r="13" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="31" t="s">
-        <v>11</v>
-      </c>
+      <c r="A13" s="31"/>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="7"/>
@@ -2757,11 +2779,11 @@
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="23"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
       <c r="R13" s="23"/>
       <c r="S13" s="8"/>
       <c r="T13" s="8"/>
@@ -2786,26 +2808,26 @@
     <row r="14" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="31"/>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="7"/>
       <c r="S14" s="8"/>
       <c r="T14" s="8"/>
       <c r="U14" s="8"/>
@@ -2827,179 +2849,187 @@
       <c r="AK14" s="8"/>
     </row>
     <row r="15" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>13</v>
+      <c r="A15" s="31" t="s">
+        <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C15" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="9"/>
-      <c r="S15" s="10"/>
-      <c r="T15" s="10"/>
-      <c r="U15" s="10"/>
-      <c r="V15" s="10"/>
-      <c r="W15" s="10"/>
-      <c r="X15" s="10"/>
-      <c r="Y15" s="10"/>
-      <c r="Z15" s="10"/>
-      <c r="AA15" s="10"/>
-      <c r="AB15" s="10"/>
-      <c r="AC15" s="10"/>
-      <c r="AD15" s="10"/>
-      <c r="AE15" s="10"/>
-      <c r="AF15" s="10"/>
-      <c r="AG15" s="10"/>
-      <c r="AH15" s="10"/>
-      <c r="AI15" s="10"/>
-      <c r="AJ15" s="10"/>
-      <c r="AK15" s="10"/>
-    </row>
-    <row r="16" spans="1:40" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
+      <c r="D15" s="13"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="23"/>
+      <c r="S15" s="23"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="8"/>
+      <c r="X15" s="8"/>
+      <c r="Y15" s="8"/>
+      <c r="Z15" s="8"/>
+      <c r="AA15" s="8"/>
+      <c r="AB15" s="8"/>
+      <c r="AC15" s="8"/>
+      <c r="AD15" s="8"/>
+      <c r="AE15" s="8"/>
+      <c r="AF15" s="8"/>
+      <c r="AG15" s="8"/>
+      <c r="AH15" s="8"/>
+      <c r="AI15" s="8"/>
+      <c r="AJ15" s="8"/>
+      <c r="AK15" s="8"/>
+    </row>
+    <row r="16" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="31"/>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="13"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="23"/>
+      <c r="S16" s="23"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8"/>
+      <c r="X16" s="8"/>
+      <c r="Y16" s="8"/>
+      <c r="Z16" s="8"/>
+      <c r="AA16" s="8"/>
+      <c r="AB16" s="8"/>
+      <c r="AC16" s="8"/>
+      <c r="AD16" s="8"/>
+      <c r="AE16" s="8"/>
+      <c r="AF16" s="8"/>
+      <c r="AG16" s="8"/>
+      <c r="AH16" s="8"/>
+      <c r="AI16" s="8"/>
+      <c r="AJ16" s="8"/>
+      <c r="AK16" s="8"/>
+    </row>
+    <row r="17" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" s="14"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="23"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="10"/>
+      <c r="V17" s="10"/>
+      <c r="W17" s="10"/>
+      <c r="X17" s="10"/>
+      <c r="Y17" s="10"/>
+      <c r="Z17" s="10"/>
+      <c r="AA17" s="10"/>
+      <c r="AB17" s="10"/>
+      <c r="AC17" s="10"/>
+      <c r="AD17" s="10"/>
+      <c r="AE17" s="10"/>
+      <c r="AF17" s="10"/>
+      <c r="AG17" s="10"/>
+      <c r="AH17" s="10"/>
+      <c r="AI17" s="10"/>
+      <c r="AJ17" s="10"/>
+      <c r="AK17" s="10"/>
+    </row>
+    <row r="18" spans="1:37" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B18" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="11"/>
-      <c r="S16" s="12"/>
-      <c r="T16" s="12"/>
-      <c r="U16" s="12"/>
-      <c r="V16" s="12"/>
-      <c r="W16" s="12"/>
-      <c r="X16" s="12"/>
-      <c r="Y16" s="12"/>
-      <c r="Z16" s="11"/>
-      <c r="AA16" s="11"/>
-      <c r="AB16" s="11"/>
-      <c r="AC16" s="11"/>
-      <c r="AD16" s="11"/>
-      <c r="AE16" s="11"/>
-      <c r="AF16" s="11"/>
-      <c r="AG16" s="11"/>
-      <c r="AH16" s="11"/>
-      <c r="AI16" s="11"/>
-      <c r="AJ16" s="11"/>
-      <c r="AK16" s="11"/>
-    </row>
-    <row r="17" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="31" t="s">
+      <c r="C18" s="19"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="12"/>
+      <c r="U18" s="12"/>
+      <c r="V18" s="12"/>
+      <c r="W18" s="12"/>
+      <c r="X18" s="12"/>
+      <c r="Y18" s="12"/>
+      <c r="Z18" s="11"/>
+      <c r="AA18" s="11"/>
+      <c r="AB18" s="11"/>
+      <c r="AC18" s="11"/>
+      <c r="AD18" s="11"/>
+      <c r="AE18" s="11"/>
+      <c r="AF18" s="11"/>
+      <c r="AG18" s="11"/>
+      <c r="AH18" s="11"/>
+      <c r="AI18" s="11"/>
+      <c r="AJ18" s="11"/>
+      <c r="AK18" s="11"/>
+    </row>
+    <row r="19" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B19" t="s">
         <v>16</v>
-      </c>
-      <c r="D17" s="16"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="8"/>
-      <c r="R17" s="8"/>
-      <c r="S17" s="7"/>
-      <c r="T17" s="7"/>
-      <c r="U17" s="7"/>
-      <c r="V17" s="7"/>
-      <c r="W17" s="7"/>
-      <c r="X17" s="7"/>
-      <c r="Y17" s="7"/>
-      <c r="Z17" s="8"/>
-      <c r="AA17" s="8"/>
-      <c r="AB17" s="8"/>
-      <c r="AC17" s="8"/>
-      <c r="AD17" s="8"/>
-      <c r="AE17" s="8"/>
-      <c r="AF17" s="8"/>
-      <c r="AG17" s="8"/>
-      <c r="AH17" s="8"/>
-      <c r="AI17" s="8"/>
-      <c r="AJ17" s="8"/>
-      <c r="AK17" s="8"/>
-    </row>
-    <row r="18" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="31"/>
-      <c r="B18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="16"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="8"/>
-      <c r="S18" s="7"/>
-      <c r="T18" s="7"/>
-      <c r="U18" s="7"/>
-      <c r="V18" s="7"/>
-      <c r="W18" s="7"/>
-      <c r="X18" s="7"/>
-      <c r="Y18" s="7"/>
-      <c r="Z18" s="8"/>
-      <c r="AA18" s="8"/>
-      <c r="AB18" s="8"/>
-      <c r="AC18" s="8"/>
-      <c r="AD18" s="8"/>
-      <c r="AE18" s="8"/>
-      <c r="AF18" s="8"/>
-      <c r="AG18" s="8"/>
-      <c r="AH18" s="8"/>
-      <c r="AI18" s="8"/>
-      <c r="AJ18" s="8"/>
-      <c r="AK18" s="8"/>
-    </row>
-    <row r="19" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="31"/>
-      <c r="B19" t="s">
-        <v>67</v>
       </c>
       <c r="D19" s="16"/>
       <c r="E19" s="8"/>
@@ -3039,7 +3069,7 @@
     <row r="20" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="31"/>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D20" s="16"/>
       <c r="E20" s="8"/>
@@ -3079,7 +3109,7 @@
     <row r="21" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="31"/>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="D21" s="16"/>
       <c r="E21" s="8"/>
@@ -3119,7 +3149,7 @@
     <row r="22" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="31"/>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D22" s="16"/>
       <c r="E22" s="8"/>
@@ -3157,11 +3187,9 @@
       <c r="AK22" s="8"/>
     </row>
     <row r="23" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="31" t="s">
-        <v>22</v>
-      </c>
+      <c r="A23" s="31"/>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D23" s="16"/>
       <c r="E23" s="8"/>
@@ -3201,7 +3229,7 @@
     <row r="24" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="31"/>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D24" s="16"/>
       <c r="E24" s="8"/>
@@ -3239,261 +3267,260 @@
       <c r="AK24" s="8"/>
     </row>
     <row r="25" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>13</v>
+      <c r="A25" s="31" t="s">
+        <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" s="17"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="10"/>
-      <c r="R25" s="10"/>
-      <c r="S25" s="9"/>
-      <c r="T25" s="9"/>
-      <c r="U25" s="9"/>
-      <c r="V25" s="9"/>
-      <c r="W25" s="9"/>
-      <c r="X25" s="9"/>
-      <c r="Y25" s="9"/>
-      <c r="Z25" s="10"/>
-      <c r="AA25" s="10"/>
-      <c r="AB25" s="10"/>
-      <c r="AC25" s="10"/>
-      <c r="AD25" s="10"/>
-      <c r="AE25" s="10"/>
-      <c r="AF25" s="10"/>
-      <c r="AG25" s="10"/>
-      <c r="AH25" s="10"/>
-      <c r="AI25" s="10"/>
-      <c r="AJ25" s="10"/>
-      <c r="AK25" s="10"/>
-    </row>
-    <row r="26" spans="1:37" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="19"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="11"/>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="11"/>
-      <c r="R26" s="11"/>
-      <c r="S26" s="11"/>
-      <c r="T26" s="11"/>
-      <c r="U26" s="11"/>
-      <c r="V26" s="11"/>
-      <c r="W26" s="11"/>
-      <c r="X26" s="11"/>
-      <c r="Y26" s="11"/>
-      <c r="Z26" s="12"/>
-      <c r="AA26" s="12"/>
-      <c r="AB26" s="12"/>
-      <c r="AC26" s="12"/>
-      <c r="AD26" s="12"/>
-      <c r="AE26" s="12"/>
-      <c r="AF26" s="12"/>
-      <c r="AG26" s="12"/>
-      <c r="AH26" s="12"/>
-      <c r="AI26" s="12"/>
-      <c r="AJ26" s="12"/>
-      <c r="AK26" s="12"/>
+        <v>23</v>
+      </c>
+      <c r="D25" s="16"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="7"/>
+      <c r="T25" s="7"/>
+      <c r="U25" s="7"/>
+      <c r="V25" s="7"/>
+      <c r="W25" s="7"/>
+      <c r="X25" s="7"/>
+      <c r="Y25" s="7"/>
+      <c r="Z25" s="8"/>
+      <c r="AA25" s="8"/>
+      <c r="AB25" s="8"/>
+      <c r="AC25" s="8"/>
+      <c r="AD25" s="8"/>
+      <c r="AE25" s="8"/>
+      <c r="AF25" s="8"/>
+      <c r="AG25" s="8"/>
+      <c r="AH25" s="8"/>
+      <c r="AI25" s="8"/>
+      <c r="AJ25" s="8"/>
+      <c r="AK25" s="8"/>
+    </row>
+    <row r="26" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="31"/>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="16"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="8"/>
+      <c r="S26" s="7"/>
+      <c r="T26" s="7"/>
+      <c r="U26" s="7"/>
+      <c r="V26" s="7"/>
+      <c r="W26" s="7"/>
+      <c r="X26" s="7"/>
+      <c r="Y26" s="7"/>
+      <c r="Z26" s="8"/>
+      <c r="AA26" s="8"/>
+      <c r="AB26" s="8"/>
+      <c r="AC26" s="8"/>
+      <c r="AD26" s="8"/>
+      <c r="AE26" s="8"/>
+      <c r="AF26" s="8"/>
+      <c r="AG26" s="8"/>
+      <c r="AH26" s="8"/>
+      <c r="AI26" s="8"/>
+      <c r="AJ26" s="8"/>
+      <c r="AK26" s="8"/>
     </row>
     <row r="27" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="17"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="10"/>
+      <c r="R27" s="10"/>
+      <c r="S27" s="9"/>
+      <c r="T27" s="9"/>
+      <c r="U27" s="9"/>
+      <c r="V27" s="9"/>
+      <c r="W27" s="9"/>
+      <c r="X27" s="9"/>
+      <c r="Y27" s="9"/>
+      <c r="Z27" s="10"/>
+      <c r="AA27" s="10"/>
+      <c r="AB27" s="10"/>
+      <c r="AC27" s="10"/>
+      <c r="AD27" s="10"/>
+      <c r="AE27" s="10"/>
+      <c r="AF27" s="10"/>
+      <c r="AG27" s="10"/>
+      <c r="AH27" s="10"/>
+      <c r="AI27" s="10"/>
+      <c r="AJ27" s="10"/>
+      <c r="AK27" s="10"/>
+    </row>
+    <row r="28" spans="1:37" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="19"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="11"/>
+      <c r="T28" s="11"/>
+      <c r="U28" s="11"/>
+      <c r="V28" s="11"/>
+      <c r="W28" s="11"/>
+      <c r="X28" s="11"/>
+      <c r="Y28" s="11"/>
+      <c r="Z28" s="12"/>
+      <c r="AA28" s="12"/>
+      <c r="AB28" s="12"/>
+      <c r="AC28" s="12"/>
+      <c r="AD28" s="12"/>
+      <c r="AE28" s="12"/>
+      <c r="AF28" s="12"/>
+      <c r="AG28" s="12"/>
+      <c r="AH28" s="12"/>
+      <c r="AI28" s="12"/>
+      <c r="AJ28" s="12"/>
+      <c r="AK28" s="12"/>
+    </row>
+    <row r="29" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B29" t="s">
         <v>29</v>
       </c>
-      <c r="D27" s="16"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="8"/>
-      <c r="P27" s="8"/>
-      <c r="Q27" s="8"/>
-      <c r="R27" s="8"/>
-      <c r="S27" s="8"/>
-      <c r="T27" s="8"/>
-      <c r="U27" s="8"/>
-      <c r="V27" s="8"/>
-      <c r="W27" s="8"/>
-      <c r="X27" s="8"/>
-      <c r="Y27" s="8"/>
-      <c r="Z27" s="7"/>
-      <c r="AA27" s="7"/>
-      <c r="AB27" s="7"/>
-      <c r="AC27" s="7"/>
-      <c r="AD27" s="7"/>
-      <c r="AE27" s="7"/>
-      <c r="AF27" s="7"/>
-      <c r="AG27" s="7"/>
-      <c r="AH27" s="7"/>
-      <c r="AI27" s="7"/>
-      <c r="AJ27" s="7"/>
-      <c r="AK27" s="7"/>
-    </row>
-    <row r="28" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="31" t="s">
+      <c r="D29" s="16"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="8"/>
+      <c r="R29" s="8"/>
+      <c r="S29" s="8"/>
+      <c r="T29" s="8"/>
+      <c r="U29" s="8"/>
+      <c r="V29" s="8"/>
+      <c r="W29" s="8"/>
+      <c r="X29" s="8"/>
+      <c r="Y29" s="8"/>
+      <c r="Z29" s="7"/>
+      <c r="AA29" s="7"/>
+      <c r="AB29" s="7"/>
+      <c r="AC29" s="7"/>
+      <c r="AD29" s="7"/>
+      <c r="AE29" s="7"/>
+      <c r="AF29" s="7"/>
+      <c r="AG29" s="7"/>
+      <c r="AH29" s="7"/>
+      <c r="AI29" s="7"/>
+      <c r="AJ29" s="7"/>
+      <c r="AK29" s="7"/>
+    </row>
+    <row r="30" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B30" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="16"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="8"/>
-      <c r="O28" s="8"/>
-      <c r="P28" s="8"/>
-      <c r="Q28" s="8"/>
-      <c r="R28" s="8"/>
-      <c r="S28" s="8"/>
-      <c r="T28" s="8"/>
-      <c r="U28" s="8"/>
-      <c r="V28" s="8"/>
-      <c r="W28" s="8"/>
-      <c r="X28" s="8"/>
-      <c r="Y28" s="8"/>
-      <c r="Z28" s="7"/>
-      <c r="AA28" s="7"/>
-      <c r="AB28" s="7"/>
-      <c r="AC28" s="7"/>
-      <c r="AD28" s="7"/>
-      <c r="AE28" s="7"/>
-      <c r="AF28" s="7"/>
-      <c r="AG28" s="7"/>
-      <c r="AH28" s="7"/>
-      <c r="AI28" s="7"/>
-      <c r="AJ28" s="7"/>
-      <c r="AK28" s="7"/>
-    </row>
-    <row r="29" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="32"/>
-      <c r="B29" t="s">
-        <v>32</v>
-      </c>
-      <c r="D29" s="17"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="10"/>
-      <c r="O29" s="10"/>
-      <c r="P29" s="10"/>
-      <c r="Q29" s="10"/>
-      <c r="R29" s="10"/>
-      <c r="S29" s="10"/>
-      <c r="T29" s="10"/>
-      <c r="U29" s="10"/>
-      <c r="V29" s="10"/>
-      <c r="W29" s="10"/>
-      <c r="X29" s="10"/>
-      <c r="Y29" s="10"/>
-      <c r="Z29" s="9"/>
-      <c r="AA29" s="9"/>
-      <c r="AB29" s="9"/>
-      <c r="AC29" s="9"/>
-      <c r="AD29" s="9"/>
-      <c r="AE29" s="9"/>
-      <c r="AF29" s="9"/>
-      <c r="AG29" s="9"/>
-      <c r="AH29" s="9"/>
-      <c r="AI29" s="9"/>
-      <c r="AJ29" s="9"/>
-      <c r="AK29" s="9"/>
-    </row>
-    <row r="30" spans="1:37" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" s="19"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="11"/>
-      <c r="M30" s="11"/>
-      <c r="N30" s="11"/>
-      <c r="O30" s="11"/>
-      <c r="P30" s="11"/>
-      <c r="Q30" s="11"/>
-      <c r="R30" s="11"/>
-      <c r="S30" s="11"/>
-      <c r="T30" s="11"/>
-      <c r="U30" s="11"/>
-      <c r="V30" s="11"/>
-      <c r="W30" s="11"/>
-      <c r="X30" s="11"/>
-      <c r="Y30" s="11"/>
-      <c r="Z30" s="11"/>
-      <c r="AA30" s="11"/>
-      <c r="AB30" s="11"/>
-      <c r="AC30" s="11"/>
-      <c r="AD30" s="11"/>
-      <c r="AE30" s="11"/>
-      <c r="AF30" s="12"/>
-      <c r="AG30" s="12"/>
-      <c r="AH30" s="12"/>
-      <c r="AI30" s="12"/>
-      <c r="AJ30" s="12"/>
-      <c r="AK30" s="12"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="8"/>
+      <c r="S30" s="8"/>
+      <c r="T30" s="8"/>
+      <c r="U30" s="8"/>
+      <c r="V30" s="8"/>
+      <c r="W30" s="8"/>
+      <c r="X30" s="8"/>
+      <c r="Y30" s="8"/>
+      <c r="Z30" s="7"/>
+      <c r="AA30" s="7"/>
+      <c r="AB30" s="7"/>
+      <c r="AC30" s="7"/>
+      <c r="AD30" s="7"/>
+      <c r="AE30" s="7"/>
+      <c r="AF30" s="7"/>
+      <c r="AG30" s="7"/>
+      <c r="AH30" s="7"/>
+      <c r="AI30" s="7"/>
+      <c r="AJ30" s="7"/>
+      <c r="AK30" s="7"/>
     </row>
     <row r="31" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="32"/>
       <c r="B31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D31" s="17"/>
       <c r="E31" s="10"/>
@@ -3517,12 +3544,12 @@
       <c r="W31" s="10"/>
       <c r="X31" s="10"/>
       <c r="Y31" s="10"/>
-      <c r="Z31" s="10"/>
-      <c r="AA31" s="10"/>
-      <c r="AB31" s="10"/>
-      <c r="AC31" s="10"/>
-      <c r="AD31" s="10"/>
-      <c r="AE31" s="10"/>
+      <c r="Z31" s="9"/>
+      <c r="AA31" s="9"/>
+      <c r="AB31" s="9"/>
+      <c r="AC31" s="9"/>
+      <c r="AD31" s="9"/>
+      <c r="AE31" s="9"/>
       <c r="AF31" s="9"/>
       <c r="AG31" s="9"/>
       <c r="AH31" s="9"/>
@@ -3531,37 +3558,120 @@
       <c r="AK31" s="9"/>
     </row>
     <row r="32" spans="1:37" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="2"/>
+      <c r="A32" s="33" t="s">
+        <v>30</v>
+      </c>
       <c r="B32" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="19"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="11"/>
+      <c r="S32" s="11"/>
+      <c r="T32" s="11"/>
+      <c r="U32" s="11"/>
+      <c r="V32" s="11"/>
+      <c r="W32" s="11"/>
+      <c r="X32" s="11"/>
+      <c r="Y32" s="11"/>
+      <c r="Z32" s="11"/>
+      <c r="AA32" s="11"/>
+      <c r="AB32" s="11"/>
+      <c r="AC32" s="11"/>
+      <c r="AD32" s="11"/>
+      <c r="AE32" s="11"/>
+      <c r="AF32" s="12"/>
+      <c r="AG32" s="12"/>
+      <c r="AH32" s="12"/>
+      <c r="AI32" s="12"/>
+      <c r="AJ32" s="12"/>
+      <c r="AK32" s="12"/>
+    </row>
+    <row r="33" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="32"/>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" s="17"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="10"/>
+      <c r="Q33" s="10"/>
+      <c r="R33" s="10"/>
+      <c r="S33" s="10"/>
+      <c r="T33" s="10"/>
+      <c r="U33" s="10"/>
+      <c r="V33" s="10"/>
+      <c r="W33" s="10"/>
+      <c r="X33" s="10"/>
+      <c r="Y33" s="10"/>
+      <c r="Z33" s="10"/>
+      <c r="AA33" s="10"/>
+      <c r="AB33" s="10"/>
+      <c r="AC33" s="10"/>
+      <c r="AD33" s="10"/>
+      <c r="AE33" s="10"/>
+      <c r="AF33" s="9"/>
+      <c r="AG33" s="9"/>
+      <c r="AH33" s="9"/>
+      <c r="AI33" s="9"/>
+      <c r="AJ33" s="9"/>
+      <c r="AK33" s="9"/>
+    </row>
+    <row r="34" spans="1:37" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="2"/>
+      <c r="B34" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="19"/>
-      <c r="D32" s="6"/>
-    </row>
-    <row r="33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="6"/>
+    </row>
+    <row r="35" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A25:A26"/>
     <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
     <mergeCell ref="D1:AB1"/>
     <mergeCell ref="AC1:AN1"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A17:A22"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A19:A24"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A6:A10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/document/프로젝트 일정표.xlsx
+++ b/document/프로젝트 일정표.xlsx
@@ -259,10 +259,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>JH, SH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>추</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -324,6 +320,10 @@
   </si>
   <si>
     <t>Header, Nav 파트 통합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JH, SH, CW</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2213,14 +2213,14 @@
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="M11" sqref="M11"/>
+      <selection pane="bottomRight" activeCell="U15" sqref="U15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="33.875" customWidth="1"/>
-    <col min="3" max="3" width="7.75" style="18" customWidth="1"/>
+    <col min="3" max="3" width="10.375" style="18" customWidth="1"/>
     <col min="4" max="4" width="5.625" style="5" customWidth="1"/>
     <col min="5" max="40" width="5.625" customWidth="1"/>
   </cols>
@@ -2407,22 +2407,22 @@
         <v>36</v>
       </c>
       <c r="Z3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA3" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AA3" s="1" t="s">
+      <c r="AD3" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AD3" s="1" t="s">
+      <c r="AE3" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="AE3" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="AF3" s="1" t="s">
         <v>38</v>
       </c>
       <c r="AK3" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AM3" s="1" t="s">
         <v>39</v>
@@ -2548,10 +2548,10 @@
     <row r="8" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="31"/>
       <c r="B8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="7"/>
@@ -2591,7 +2591,7 @@
     <row r="9" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="31"/>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C9" s="18" t="s">
         <v>45</v>
@@ -2612,7 +2612,7 @@
       <c r="Q9" s="7"/>
       <c r="R9" s="7"/>
       <c r="S9" s="23"/>
-      <c r="T9" s="8"/>
+      <c r="T9" s="23"/>
       <c r="U9" s="8"/>
       <c r="V9" s="8"/>
       <c r="W9" s="8"/>
@@ -2634,10 +2634,10 @@
     <row r="10" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="31"/>
       <c r="B10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="7"/>
@@ -2655,7 +2655,7 @@
       <c r="Q10" s="7"/>
       <c r="R10" s="7"/>
       <c r="S10" s="23"/>
-      <c r="T10" s="8"/>
+      <c r="T10" s="23"/>
       <c r="U10" s="8"/>
       <c r="V10" s="8"/>
       <c r="W10" s="8"/>
@@ -2679,7 +2679,7 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C11" s="18" t="s">
         <v>45</v>
@@ -2722,7 +2722,7 @@
     <row r="12" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="31"/>
       <c r="B12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C12" s="18" t="s">
         <v>46</v>
@@ -2765,7 +2765,7 @@
     <row r="13" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="31"/>
       <c r="B13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C13" s="18" t="s">
         <v>46</v>
@@ -2786,7 +2786,7 @@
       <c r="Q13" s="7"/>
       <c r="R13" s="23"/>
       <c r="S13" s="8"/>
-      <c r="T13" s="8"/>
+      <c r="T13" s="23"/>
       <c r="U13" s="8"/>
       <c r="V13" s="8"/>
       <c r="W13" s="8"/>
@@ -2811,7 +2811,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="7"/>
@@ -2899,7 +2899,7 @@
         <v>12</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="7"/>
@@ -2944,7 +2944,7 @@
         <v>14</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D17" s="14"/>
       <c r="E17" s="9"/>
@@ -2962,7 +2962,7 @@
       <c r="Q17" s="9"/>
       <c r="R17" s="9"/>
       <c r="S17" s="23"/>
-      <c r="T17" s="10"/>
+      <c r="T17" s="23"/>
       <c r="U17" s="10"/>
       <c r="V17" s="10"/>
       <c r="W17" s="10"/>
@@ -3109,7 +3109,7 @@
     <row r="21" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="31"/>
       <c r="B21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D21" s="16"/>
       <c r="E21" s="8"/>

--- a/document/프로젝트 일정표.xlsx
+++ b/document/프로젝트 일정표.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ezen\Desktop\document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jihoo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA583F67-3407-408B-9589-FD5380670D63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="1"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="계획" sheetId="1" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="75">
   <si>
     <t>10월</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -330,7 +331,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -550,7 +551,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -614,9 +615,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -629,9 +627,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -639,9 +634,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -652,6 +644,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -932,7 +927,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN41"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -953,47 +948,47 @@
   <sheetData>
     <row r="1" spans="1:40" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="C1" s="18"/>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
-      <c r="U1" s="30"/>
-      <c r="V1" s="30"/>
-      <c r="W1" s="30"/>
-      <c r="X1" s="30"/>
-      <c r="Y1" s="30"/>
-      <c r="Z1" s="30"/>
-      <c r="AA1" s="30"/>
-      <c r="AB1" s="30"/>
-      <c r="AC1" s="28" t="s">
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
+      <c r="X1" s="26"/>
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26"/>
+      <c r="AB1" s="26"/>
+      <c r="AC1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="AD1" s="28"/>
-      <c r="AE1" s="28"/>
-      <c r="AF1" s="28"/>
-      <c r="AG1" s="28"/>
-      <c r="AH1" s="28"/>
-      <c r="AI1" s="28"/>
-      <c r="AJ1" s="28"/>
-      <c r="AK1" s="28"/>
-      <c r="AL1" s="28"/>
-      <c r="AM1" s="28"/>
-      <c r="AN1" s="28"/>
+      <c r="AD1" s="26"/>
+      <c r="AE1" s="26"/>
+      <c r="AF1" s="26"/>
+      <c r="AG1" s="26"/>
+      <c r="AH1" s="26"/>
+      <c r="AI1" s="26"/>
+      <c r="AJ1" s="26"/>
+      <c r="AK1" s="26"/>
+      <c r="AL1" s="26"/>
+      <c r="AM1" s="26"/>
+      <c r="AN1" s="26"/>
     </row>
     <row r="2" spans="1:40" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C2" s="18"/>
@@ -2206,14 +2201,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AN46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="J4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="U15" sqref="U15"/>
+      <selection pane="bottomRight" activeCell="AC22" sqref="AC22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2226,54 +2221,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="21" t="s">
         <v>52</v>
       </c>
       <c r="C1" s="18"/>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
-      <c r="U1" s="30"/>
-      <c r="V1" s="30"/>
-      <c r="W1" s="30"/>
-      <c r="X1" s="30"/>
-      <c r="Y1" s="30"/>
-      <c r="Z1" s="30"/>
-      <c r="AA1" s="30"/>
-      <c r="AB1" s="30"/>
-      <c r="AC1" s="28" t="s">
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
+      <c r="X1" s="26"/>
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26"/>
+      <c r="AB1" s="26"/>
+      <c r="AC1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="AD1" s="28"/>
-      <c r="AE1" s="28"/>
-      <c r="AF1" s="28"/>
-      <c r="AG1" s="28"/>
-      <c r="AH1" s="28"/>
-      <c r="AI1" s="28"/>
-      <c r="AJ1" s="28"/>
-      <c r="AK1" s="28"/>
-      <c r="AL1" s="28"/>
-      <c r="AM1" s="28"/>
-      <c r="AN1" s="28"/>
+      <c r="AD1" s="26"/>
+      <c r="AE1" s="26"/>
+      <c r="AF1" s="26"/>
+      <c r="AG1" s="26"/>
+      <c r="AH1" s="26"/>
+      <c r="AI1" s="26"/>
+      <c r="AJ1" s="26"/>
+      <c r="AK1" s="26"/>
+      <c r="AL1" s="26"/>
+      <c r="AM1" s="26"/>
+      <c r="AN1" s="26"/>
     </row>
     <row r="2" spans="1:40" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="23" t="s">
         <v>53</v>
       </c>
       <c r="C2" s="18"/>
@@ -2286,10 +2281,10 @@
       <c r="F2" s="1">
         <v>8</v>
       </c>
-      <c r="G2" s="22">
+      <c r="G2" s="21">
         <v>9</v>
       </c>
-      <c r="H2" s="22">
+      <c r="H2" s="21">
         <v>10</v>
       </c>
       <c r="I2" s="1">
@@ -2307,10 +2302,10 @@
       <c r="M2" s="1">
         <v>15</v>
       </c>
-      <c r="N2" s="22">
+      <c r="N2" s="21">
         <v>16</v>
       </c>
-      <c r="O2" s="22">
+      <c r="O2" s="21">
         <v>17</v>
       </c>
       <c r="P2" s="1">
@@ -2328,10 +2323,10 @@
       <c r="T2" s="1">
         <v>22</v>
       </c>
-      <c r="U2" s="22">
+      <c r="U2" s="21">
         <v>23</v>
       </c>
-      <c r="V2" s="22">
+      <c r="V2" s="21">
         <v>24</v>
       </c>
       <c r="W2" s="1">
@@ -2343,22 +2338,22 @@
       <c r="Y2" s="1">
         <v>27</v>
       </c>
-      <c r="Z2" s="27">
+      <c r="Z2" s="25">
         <v>28</v>
       </c>
-      <c r="AA2" s="27">
+      <c r="AA2" s="25">
         <v>29</v>
       </c>
-      <c r="AB2" s="22">
+      <c r="AB2" s="21">
         <v>30</v>
       </c>
-      <c r="AC2" s="22">
+      <c r="AC2" s="21">
         <v>1</v>
       </c>
-      <c r="AD2" s="27">
+      <c r="AD2" s="25">
         <v>2</v>
       </c>
-      <c r="AE2" s="27">
+      <c r="AE2" s="25">
         <v>3</v>
       </c>
       <c r="AF2" s="1">
@@ -2370,13 +2365,13 @@
       <c r="AH2" s="1">
         <v>6</v>
       </c>
-      <c r="AI2" s="22">
+      <c r="AI2" s="21">
         <v>7</v>
       </c>
-      <c r="AJ2" s="22">
+      <c r="AJ2" s="21">
         <v>8</v>
       </c>
-      <c r="AK2" s="27">
+      <c r="AK2" s="25">
         <v>9</v>
       </c>
       <c r="AL2" s="1">
@@ -2390,7 +2385,7 @@
       </c>
     </row>
     <row r="3" spans="1:40" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="24" t="s">
         <v>54</v>
       </c>
       <c r="C3" s="18"/>
@@ -2427,12 +2422,12 @@
       <c r="AM3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AN3" s="26" t="s">
+      <c r="AN3" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:40" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="28" t="s">
         <v>56</v>
       </c>
       <c r="B4" t="s">
@@ -2445,8 +2440,8 @@
       <c r="E4" s="20"/>
       <c r="F4" s="20"/>
     </row>
-    <row r="5" spans="1:40" s="21" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="31"/>
+    <row r="5" spans="1:40" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="28"/>
       <c r="B5" t="s">
         <v>51</v>
       </c>
@@ -2457,7 +2452,7 @@
       <c r="J5" s="20"/>
     </row>
     <row r="6" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="28" t="s">
         <v>55</v>
       </c>
       <c r="B6" t="s">
@@ -2503,7 +2498,7 @@
       <c r="AM6" s="1"/>
     </row>
     <row r="7" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="31"/>
+      <c r="A7" s="28"/>
       <c r="B7" t="s">
         <v>5</v>
       </c>
@@ -2546,7 +2541,7 @@
       <c r="AK7" s="8"/>
     </row>
     <row r="8" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="31"/>
+      <c r="A8" s="28"/>
       <c r="B8" t="s">
         <v>64</v>
       </c>
@@ -2567,7 +2562,7 @@
       <c r="O8" s="7"/>
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
-      <c r="R8" s="23"/>
+      <c r="R8" s="22"/>
       <c r="S8" s="8"/>
       <c r="T8" s="8"/>
       <c r="U8" s="8"/>
@@ -2589,7 +2584,7 @@
       <c r="AK8" s="8"/>
     </row>
     <row r="9" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="31"/>
+      <c r="A9" s="28"/>
       <c r="B9" t="s">
         <v>70</v>
       </c>
@@ -2611,8 +2606,8 @@
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
       <c r="R9" s="7"/>
-      <c r="S9" s="23"/>
-      <c r="T9" s="23"/>
+      <c r="S9" s="22"/>
+      <c r="T9" s="22"/>
       <c r="U9" s="8"/>
       <c r="V9" s="8"/>
       <c r="W9" s="8"/>
@@ -2632,7 +2627,7 @@
       <c r="AK9" s="8"/>
     </row>
     <row r="10" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="31"/>
+      <c r="A10" s="28"/>
       <c r="B10" t="s">
         <v>73</v>
       </c>
@@ -2654,8 +2649,8 @@
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
       <c r="R10" s="7"/>
-      <c r="S10" s="23"/>
-      <c r="T10" s="23"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="22"/>
       <c r="U10" s="8"/>
       <c r="V10" s="8"/>
       <c r="W10" s="8"/>
@@ -2675,7 +2670,7 @@
       <c r="AK10" s="8"/>
     </row>
     <row r="11" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="28" t="s">
         <v>6</v>
       </c>
       <c r="B11" t="s">
@@ -2688,18 +2683,18 @@
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="23"/>
+      <c r="H11" s="22"/>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="23"/>
-      <c r="S11" s="23"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="22"/>
+      <c r="S11" s="22"/>
       <c r="T11" s="8"/>
       <c r="U11" s="8"/>
       <c r="V11" s="8"/>
@@ -2720,7 +2715,7 @@
       <c r="AK11" s="8"/>
     </row>
     <row r="12" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="31"/>
+      <c r="A12" s="28"/>
       <c r="B12" t="s">
         <v>68</v>
       </c>
@@ -2730,19 +2725,19 @@
       <c r="D12" s="13"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="23"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="22"/>
       <c r="R12" s="7"/>
-      <c r="S12" s="23"/>
+      <c r="S12" s="22"/>
       <c r="T12" s="8"/>
       <c r="U12" s="8"/>
       <c r="V12" s="8"/>
@@ -2763,7 +2758,7 @@
       <c r="AK12" s="8"/>
     </row>
     <row r="13" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="31"/>
+      <c r="A13" s="28"/>
       <c r="B13" t="s">
         <v>67</v>
       </c>
@@ -2784,9 +2779,9 @@
       <c r="O13" s="7"/>
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
-      <c r="R13" s="23"/>
+      <c r="R13" s="22"/>
       <c r="S13" s="8"/>
-      <c r="T13" s="23"/>
+      <c r="T13" s="22"/>
       <c r="U13" s="8"/>
       <c r="V13" s="8"/>
       <c r="W13" s="8"/>
@@ -2806,7 +2801,7 @@
       <c r="AK13" s="8"/>
     </row>
     <row r="14" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="31"/>
+      <c r="A14" s="28"/>
       <c r="B14" t="s">
         <v>9</v>
       </c>
@@ -2818,15 +2813,15 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="23"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="22"/>
       <c r="R14" s="7"/>
       <c r="S14" s="8"/>
       <c r="T14" s="8"/>
@@ -2849,7 +2844,7 @@
       <c r="AK14" s="8"/>
     </row>
     <row r="15" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="28" t="s">
         <v>11</v>
       </c>
       <c r="B15" t="s">
@@ -2867,13 +2862,13 @@
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="23"/>
-      <c r="S15" s="23"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="22"/>
+      <c r="S15" s="22"/>
       <c r="T15" s="8"/>
       <c r="U15" s="8"/>
       <c r="V15" s="8"/>
@@ -2894,7 +2889,7 @@
       <c r="AK15" s="8"/>
     </row>
     <row r="16" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="31"/>
+      <c r="A16" s="28"/>
       <c r="B16" t="s">
         <v>12</v>
       </c>
@@ -2915,8 +2910,8 @@
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
-      <c r="R16" s="23"/>
-      <c r="S16" s="23"/>
+      <c r="R16" s="22"/>
+      <c r="S16" s="22"/>
       <c r="T16" s="8"/>
       <c r="U16" s="8"/>
       <c r="V16" s="8"/>
@@ -2951,9 +2946,9 @@
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
       <c r="L17" s="9"/>
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
@@ -2961,8 +2956,8 @@
       <c r="P17" s="9"/>
       <c r="Q17" s="9"/>
       <c r="R17" s="9"/>
-      <c r="S17" s="23"/>
-      <c r="T17" s="23"/>
+      <c r="S17" s="22"/>
+      <c r="T17" s="22"/>
       <c r="U17" s="10"/>
       <c r="V17" s="10"/>
       <c r="W17" s="10"/>
@@ -2988,7 +2983,9 @@
       <c r="B18" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="19"/>
+      <c r="C18" s="19" t="s">
+        <v>47</v>
+      </c>
       <c r="D18" s="15"/>
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
@@ -3008,11 +3005,11 @@
       <c r="T18" s="12"/>
       <c r="U18" s="12"/>
       <c r="V18" s="12"/>
-      <c r="W18" s="12"/>
-      <c r="X18" s="12"/>
-      <c r="Y18" s="12"/>
-      <c r="Z18" s="11"/>
-      <c r="AA18" s="11"/>
+      <c r="W18" s="31"/>
+      <c r="X18" s="31"/>
+      <c r="Y18" s="31"/>
+      <c r="Z18" s="31"/>
+      <c r="AA18" s="31"/>
       <c r="AB18" s="11"/>
       <c r="AC18" s="11"/>
       <c r="AD18" s="11"/>
@@ -3025,11 +3022,14 @@
       <c r="AK18" s="11"/>
     </row>
     <row r="19" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="31" t="s">
+      <c r="A19" s="28" t="s">
         <v>15</v>
       </c>
       <c r="B19" t="s">
         <v>16</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>45</v>
       </c>
       <c r="D19" s="16"/>
       <c r="E19" s="8"/>
@@ -3053,8 +3053,8 @@
       <c r="W19" s="7"/>
       <c r="X19" s="7"/>
       <c r="Y19" s="7"/>
-      <c r="Z19" s="8"/>
-      <c r="AA19" s="8"/>
+      <c r="Z19" s="22"/>
+      <c r="AA19" s="22"/>
       <c r="AB19" s="8"/>
       <c r="AC19" s="8"/>
       <c r="AD19" s="8"/>
@@ -3067,9 +3067,12 @@
       <c r="AK19" s="8"/>
     </row>
     <row r="20" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="31"/>
+      <c r="A20" s="28"/>
       <c r="B20" t="s">
         <v>17</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>44</v>
       </c>
       <c r="D20" s="16"/>
       <c r="E20" s="8"/>
@@ -3093,8 +3096,8 @@
       <c r="W20" s="7"/>
       <c r="X20" s="7"/>
       <c r="Y20" s="7"/>
-      <c r="Z20" s="8"/>
-      <c r="AA20" s="8"/>
+      <c r="Z20" s="22"/>
+      <c r="AA20" s="22"/>
       <c r="AB20" s="8"/>
       <c r="AC20" s="8"/>
       <c r="AD20" s="8"/>
@@ -3107,9 +3110,12 @@
       <c r="AK20" s="8"/>
     </row>
     <row r="21" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="31"/>
+      <c r="A21" s="28"/>
       <c r="B21" t="s">
         <v>65</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>43</v>
       </c>
       <c r="D21" s="16"/>
       <c r="E21" s="8"/>
@@ -3132,7 +3138,7 @@
       <c r="V21" s="7"/>
       <c r="W21" s="7"/>
       <c r="X21" s="7"/>
-      <c r="Y21" s="7"/>
+      <c r="Y21" s="22"/>
       <c r="Z21" s="8"/>
       <c r="AA21" s="8"/>
       <c r="AB21" s="8"/>
@@ -3147,7 +3153,7 @@
       <c r="AK21" s="8"/>
     </row>
     <row r="22" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="31"/>
+      <c r="A22" s="28"/>
       <c r="B22" t="s">
         <v>19</v>
       </c>
@@ -3187,7 +3193,7 @@
       <c r="AK22" s="8"/>
     </row>
     <row r="23" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="31"/>
+      <c r="A23" s="28"/>
       <c r="B23" t="s">
         <v>20</v>
       </c>
@@ -3227,7 +3233,7 @@
       <c r="AK23" s="8"/>
     </row>
     <row r="24" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="31"/>
+      <c r="A24" s="28"/>
       <c r="B24" t="s">
         <v>21</v>
       </c>
@@ -3267,7 +3273,7 @@
       <c r="AK24" s="8"/>
     </row>
     <row r="25" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="31" t="s">
+      <c r="A25" s="28" t="s">
         <v>22</v>
       </c>
       <c r="B25" t="s">
@@ -3309,7 +3315,7 @@
       <c r="AK25" s="8"/>
     </row>
     <row r="26" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="31"/>
+      <c r="A26" s="28"/>
       <c r="B26" t="s">
         <v>24</v>
       </c>
@@ -3476,11 +3482,14 @@
       <c r="AK29" s="7"/>
     </row>
     <row r="30" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="31" t="s">
+      <c r="A30" s="28" t="s">
         <v>30</v>
       </c>
       <c r="B30" t="s">
         <v>31</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>47</v>
       </c>
       <c r="D30" s="16"/>
       <c r="E30" s="8"/>
@@ -3518,7 +3527,7 @@
       <c r="AK30" s="7"/>
     </row>
     <row r="31" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="32"/>
+      <c r="A31" s="29"/>
       <c r="B31" t="s">
         <v>32</v>
       </c>
@@ -3558,7 +3567,7 @@
       <c r="AK31" s="9"/>
     </row>
     <row r="32" spans="1:37" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="33" t="s">
+      <c r="A32" s="30" t="s">
         <v>30</v>
       </c>
       <c r="B32" s="3" t="s">
@@ -3601,7 +3610,7 @@
       <c r="AK32" s="12"/>
     </row>
     <row r="33" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="32"/>
+      <c r="A33" s="29"/>
       <c r="B33" t="s">
         <v>33</v>
       </c>
